--- a/ISUZU_template.xlsx
+++ b/ISUZU_template.xlsx
@@ -50100,7 +50100,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50132,48 +50132,18 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="22" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>設備ｾﾝﾀｰ</t>
         </is>
       </c>
-      <c r="B2" s="22" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>J08002</t>
         </is>
       </c>
-      <c r="C2" s="22" t="n">
+      <c r="C2" t="n">
         <v>3</v>
-      </c>
-      <c r="D2" s="22" t="inlineStr">
-        <is>
-          <t>Done 12 months without error !</t>
-        </is>
-      </c>
-      <c r="E2" s="22" t="inlineStr">
-        <is>
-          <t>Done 12 months without error !</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="22" t="inlineStr">
-        <is>
-          <t>OBP設備ｾﾝﾀｰ</t>
-        </is>
-      </c>
-      <c r="B3" s="22" t="inlineStr">
-        <is>
-          <t>J08000</t>
-        </is>
-      </c>
-      <c r="C3" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Done 12 months without error !</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/ISUZU_template.xlsx
+++ b/ISUZU_template.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="情報" sheetId="1" state="visible" r:id="rId1"/>
@@ -10070,8 +10070,8 @@
   </sheetPr>
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A175" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D185" activeCellId="0" sqref="D185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
@@ -17628,21 +17628,9 @@
       <c r="AD175" s="32" t="n"/>
     </row>
     <row r="176" ht="15.75" customHeight="1" s="24">
-      <c r="A176" s="33" t="inlineStr">
-        <is>
-          <t>自由が丘ﾊｲﾀｳﾝ</t>
-        </is>
-      </c>
-      <c r="B176" s="34" t="inlineStr">
-        <is>
-          <t>P01239</t>
-        </is>
-      </c>
-      <c r="C176" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A176" s="33" t="n"/>
+      <c r="B176" s="34" t="n"/>
+      <c r="C176" s="34" t="n"/>
       <c r="E176" s="31" t="n"/>
       <c r="F176" s="32" t="n"/>
       <c r="G176" s="32" t="n"/>
@@ -17671,21 +17659,9 @@
       <c r="AD176" s="32" t="n"/>
     </row>
     <row r="177" ht="15.75" customHeight="1" s="24">
-      <c r="A177" s="33" t="inlineStr">
-        <is>
-          <t>ﾓｱｸﾚｽﾄﾏﾘﾝｼﾃｨ金沢文庫</t>
-        </is>
-      </c>
-      <c r="B177" s="34" t="inlineStr">
-        <is>
-          <t>P01524</t>
-        </is>
-      </c>
-      <c r="C177" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A177" s="33" t="n"/>
+      <c r="B177" s="34" t="n"/>
+      <c r="C177" s="34" t="n"/>
       <c r="E177" s="31" t="n"/>
       <c r="F177" s="32" t="n"/>
       <c r="G177" s="32" t="n"/>
@@ -17714,21 +17690,9 @@
       <c r="AD177" s="32" t="n"/>
     </row>
     <row r="178" ht="15.75" customHeight="1" s="24">
-      <c r="A178" s="33" t="inlineStr">
-        <is>
-          <t>芝浦ｱｲﾗﾝﾄﾞｸﾞﾛｰﾌﾞﾀﾜｰ</t>
-        </is>
-      </c>
-      <c r="B178" s="34" t="inlineStr">
-        <is>
-          <t>P01246</t>
-        </is>
-      </c>
-      <c r="C178" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A178" s="33" t="n"/>
+      <c r="B178" s="34" t="n"/>
+      <c r="C178" s="34" t="n"/>
       <c r="E178" s="31" t="n"/>
       <c r="F178" s="32" t="n"/>
       <c r="G178" s="32" t="n"/>
@@ -17757,21 +17721,9 @@
       <c r="AD178" s="32" t="n"/>
     </row>
     <row r="179" ht="15.75" customHeight="1" s="24">
-      <c r="A179" s="33" t="inlineStr">
-        <is>
-          <t>ｱｰｸﾃﾗｽ習志野台</t>
-        </is>
-      </c>
-      <c r="B179" s="34" t="inlineStr">
-        <is>
-          <t>P01701</t>
-        </is>
-      </c>
-      <c r="C179" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A179" s="33" t="n"/>
+      <c r="B179" s="34" t="n"/>
+      <c r="C179" s="34" t="n"/>
       <c r="E179" s="31" t="n"/>
       <c r="F179" s="32" t="n"/>
       <c r="G179" s="32" t="n"/>
@@ -17800,21 +17752,9 @@
       <c r="AD179" s="32" t="n"/>
     </row>
     <row r="180" ht="15.75" customHeight="1" s="24">
-      <c r="A180" s="33" t="inlineStr">
-        <is>
-          <t>若葉台ﾊﾟｰｸﾋﾙｽﾞ</t>
-        </is>
-      </c>
-      <c r="B180" s="34" t="inlineStr">
-        <is>
-          <t>P01188</t>
-        </is>
-      </c>
-      <c r="C180" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A180" s="33" t="n"/>
+      <c r="B180" s="34" t="n"/>
+      <c r="C180" s="34" t="n"/>
       <c r="E180" s="31" t="n"/>
       <c r="F180" s="32" t="n"/>
       <c r="G180" s="32" t="n"/>
@@ -17843,21 +17783,9 @@
       <c r="AD180" s="32" t="n"/>
     </row>
     <row r="181" ht="15.75" customHeight="1" s="24">
-      <c r="A181" s="33" t="inlineStr">
-        <is>
-          <t>ｾﾝﾀｰﾊｲﾂ梅ヶ丘</t>
-        </is>
-      </c>
-      <c r="B181" s="34" t="inlineStr">
-        <is>
-          <t>P01129</t>
-        </is>
-      </c>
-      <c r="C181" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A181" s="33" t="n"/>
+      <c r="B181" s="34" t="n"/>
+      <c r="C181" s="34" t="n"/>
       <c r="E181" s="31" t="n"/>
       <c r="F181" s="32" t="n"/>
       <c r="G181" s="32" t="n"/>
@@ -17886,21 +17814,9 @@
       <c r="AD181" s="32" t="n"/>
     </row>
     <row r="182" ht="15.75" customHeight="1" s="24">
-      <c r="A182" s="33" t="inlineStr">
-        <is>
-          <t>ｳﾞｪﾙﾃﾞｨｺｱ新習志野</t>
-        </is>
-      </c>
-      <c r="B182" s="34" t="inlineStr">
-        <is>
-          <t>P01704</t>
-        </is>
-      </c>
-      <c r="C182" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A182" s="33" t="n"/>
+      <c r="B182" s="34" t="n"/>
+      <c r="C182" s="34" t="n"/>
       <c r="E182" s="31" t="n"/>
       <c r="F182" s="32" t="n"/>
       <c r="G182" s="32" t="n"/>
@@ -17929,21 +17845,9 @@
       <c r="AD182" s="32" t="n"/>
     </row>
     <row r="183" ht="15.75" customHeight="1" s="24">
-      <c r="A183" s="33" t="inlineStr">
-        <is>
-          <t>ﾌｪｱﾛｰｼﾞｭ津田沼</t>
-        </is>
-      </c>
-      <c r="B183" s="34" t="inlineStr">
-        <is>
-          <t>P01717</t>
-        </is>
-      </c>
-      <c r="C183" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A183" s="33" t="n"/>
+      <c r="B183" s="34" t="n"/>
+      <c r="C183" s="34" t="n"/>
       <c r="E183" s="31" t="n"/>
       <c r="F183" s="32" t="n"/>
       <c r="G183" s="32" t="n"/>
@@ -17972,21 +17876,9 @@
       <c r="AD183" s="32" t="n"/>
     </row>
     <row r="184" ht="15.75" customHeight="1" s="24">
-      <c r="A184" s="33" t="inlineStr">
-        <is>
-          <t>ｶﾞｰﾃﾞﾝ習志野台</t>
-        </is>
-      </c>
-      <c r="B184" s="34" t="inlineStr">
-        <is>
-          <t>P01707</t>
-        </is>
-      </c>
-      <c r="C184" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A184" s="33" t="n"/>
+      <c r="B184" s="34" t="n"/>
+      <c r="C184" s="34" t="n"/>
       <c r="E184" s="31" t="n"/>
       <c r="F184" s="32" t="n"/>
       <c r="G184" s="32" t="n"/>
@@ -18015,21 +17907,9 @@
       <c r="AD184" s="32" t="n"/>
     </row>
     <row r="185" ht="15.75" customHeight="1" s="24">
-      <c r="A185" s="33" t="inlineStr">
-        <is>
-          <t>ｻｰﾊﾟｽ柏</t>
-        </is>
-      </c>
-      <c r="B185" s="34" t="inlineStr">
-        <is>
-          <t>P01710</t>
-        </is>
-      </c>
-      <c r="C185" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A185" s="33" t="n"/>
+      <c r="B185" s="34" t="n"/>
+      <c r="C185" s="34" t="n"/>
       <c r="E185" s="31" t="n"/>
       <c r="F185" s="32" t="n"/>
       <c r="G185" s="32" t="n"/>
@@ -18058,21 +17938,9 @@
       <c r="AD185" s="32" t="n"/>
     </row>
     <row r="186" ht="15.75" customHeight="1" s="24">
-      <c r="A186" s="33" t="inlineStr">
-        <is>
-          <t>ﾍﾞﾙｼｬﾄｳ立川</t>
-        </is>
-      </c>
-      <c r="B186" s="34" t="inlineStr">
-        <is>
-          <t>P01232</t>
-        </is>
-      </c>
-      <c r="C186" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A186" s="33" t="n"/>
+      <c r="B186" s="34" t="n"/>
+      <c r="C186" s="34" t="n"/>
       <c r="E186" s="31" t="n"/>
       <c r="F186" s="32" t="n"/>
       <c r="G186" s="32" t="n"/>
@@ -18101,21 +17969,9 @@
       <c r="AD186" s="32" t="n"/>
     </row>
     <row r="187" ht="15.75" customHeight="1" s="24">
-      <c r="A187" s="33" t="inlineStr">
-        <is>
-          <t>さくらﾏﾝｼｮﾝ小松川</t>
-        </is>
-      </c>
-      <c r="B187" s="34" t="inlineStr">
-        <is>
-          <t>P01126</t>
-        </is>
-      </c>
-      <c r="C187" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A187" s="33" t="n"/>
+      <c r="B187" s="34" t="n"/>
+      <c r="C187" s="34" t="n"/>
       <c r="E187" s="31" t="n"/>
       <c r="F187" s="32" t="n"/>
       <c r="G187" s="32" t="n"/>
@@ -18144,21 +18000,9 @@
       <c r="AD187" s="32" t="n"/>
     </row>
     <row r="188" ht="15.75" customHeight="1" s="24">
-      <c r="A188" s="33" t="inlineStr">
-        <is>
-          <t>ﾊﾞｳｽ横須賀中央</t>
-        </is>
-      </c>
-      <c r="B188" s="34" t="inlineStr">
-        <is>
-          <t>P01522</t>
-        </is>
-      </c>
-      <c r="C188" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A188" s="33" t="n"/>
+      <c r="B188" s="34" t="n"/>
+      <c r="C188" s="34" t="n"/>
       <c r="E188" s="31" t="n"/>
       <c r="F188" s="32" t="n"/>
       <c r="G188" s="32" t="n"/>
@@ -18187,21 +18031,9 @@
       <c r="AD188" s="32" t="n"/>
     </row>
     <row r="189" ht="15.75" customHeight="1" s="24">
-      <c r="A189" s="33" t="inlineStr">
-        <is>
-          <t>ｱｲﾌﾟﾚｲｽ稲毛</t>
-        </is>
-      </c>
-      <c r="B189" s="34" t="inlineStr">
-        <is>
-          <t>P01702</t>
-        </is>
-      </c>
-      <c r="C189" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A189" s="33" t="n"/>
+      <c r="B189" s="34" t="n"/>
+      <c r="C189" s="34" t="n"/>
       <c r="E189" s="31" t="n"/>
       <c r="F189" s="32" t="n"/>
       <c r="G189" s="32" t="n"/>
@@ -18230,21 +18062,9 @@
       <c r="AD189" s="32" t="n"/>
     </row>
     <row r="190" ht="15.75" customHeight="1" s="24">
-      <c r="A190" s="33" t="inlineStr">
-        <is>
-          <t>ｱｰﾍﾞｯﾄﾊｲﾑ昭島</t>
-        </is>
-      </c>
-      <c r="B190" s="34" t="inlineStr">
-        <is>
-          <t>P01247</t>
-        </is>
-      </c>
-      <c r="C190" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A190" s="33" t="n"/>
+      <c r="B190" s="34" t="n"/>
+      <c r="C190" s="34" t="n"/>
       <c r="E190" s="31" t="n"/>
       <c r="F190" s="32" t="n"/>
       <c r="G190" s="32" t="n"/>
@@ -18273,21 +18093,9 @@
       <c r="AD190" s="32" t="n"/>
     </row>
     <row r="191" ht="15.75" customHeight="1" s="24">
-      <c r="A191" s="33" t="inlineStr">
-        <is>
-          <t>ﾌﾗｯﾄMK</t>
-        </is>
-      </c>
-      <c r="B191" s="34" t="inlineStr">
-        <is>
-          <t>P01216</t>
-        </is>
-      </c>
-      <c r="C191" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A191" s="33" t="n"/>
+      <c r="B191" s="34" t="n"/>
+      <c r="C191" s="34" t="n"/>
       <c r="E191" s="31" t="n"/>
       <c r="F191" s="32" t="n"/>
       <c r="G191" s="32" t="n"/>
@@ -18316,21 +18124,9 @@
       <c r="AD191" s="32" t="n"/>
     </row>
     <row r="192" ht="15.75" customHeight="1" s="24">
-      <c r="A192" s="33" t="inlineStr">
-        <is>
-          <t>ｸﾚｯｾﾝﾄ西荻窪</t>
-        </is>
-      </c>
-      <c r="B192" s="34" t="inlineStr">
-        <is>
-          <t>P01122</t>
-        </is>
-      </c>
-      <c r="C192" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A192" s="33" t="n"/>
+      <c r="B192" s="34" t="n"/>
+      <c r="C192" s="34" t="n"/>
       <c r="E192" s="31" t="n"/>
       <c r="F192" s="32" t="n"/>
       <c r="G192" s="32" t="n"/>
@@ -18359,21 +18155,9 @@
       <c r="AD192" s="32" t="n"/>
     </row>
     <row r="193" ht="15.75" customHeight="1" s="24">
-      <c r="A193" s="33" t="inlineStr">
-        <is>
-          <t>ﾌﾞﾛｰﾃﾞﾝ青木町公園</t>
-        </is>
-      </c>
-      <c r="B193" s="34" t="inlineStr">
-        <is>
-          <t>P01904</t>
-        </is>
-      </c>
-      <c r="C193" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A193" s="33" t="n"/>
+      <c r="B193" s="34" t="n"/>
+      <c r="C193" s="34" t="n"/>
       <c r="E193" s="31" t="n"/>
       <c r="F193" s="32" t="n"/>
       <c r="G193" s="32" t="n"/>
@@ -18402,21 +18186,9 @@
       <c r="AD193" s="32" t="n"/>
     </row>
     <row r="194" ht="15.75" customHeight="1" s="24">
-      <c r="A194" s="33" t="inlineStr">
-        <is>
-          <t>戸塚ﾊｲﾗｲｽﾞ</t>
-        </is>
-      </c>
-      <c r="B194" s="34" t="inlineStr">
-        <is>
-          <t>P01525</t>
-        </is>
-      </c>
-      <c r="C194" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A194" s="33" t="n"/>
+      <c r="B194" s="34" t="n"/>
+      <c r="C194" s="34" t="n"/>
       <c r="E194" s="31" t="n"/>
       <c r="F194" s="32" t="n"/>
       <c r="G194" s="32" t="n"/>
@@ -18445,21 +18217,9 @@
       <c r="AD194" s="32" t="n"/>
     </row>
     <row r="195" ht="15.75" customHeight="1" s="24">
-      <c r="A195" s="33" t="inlineStr">
-        <is>
-          <t>ｱﾙｶｻﾙ目黒花房山</t>
-        </is>
-      </c>
-      <c r="B195" s="34" t="inlineStr">
-        <is>
-          <t>P01108</t>
-        </is>
-      </c>
-      <c r="C195" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A195" s="33" t="n"/>
+      <c r="B195" s="34" t="n"/>
+      <c r="C195" s="34" t="n"/>
       <c r="E195" s="31" t="n"/>
       <c r="F195" s="32" t="n"/>
       <c r="G195" s="32" t="n"/>
@@ -18488,21 +18248,9 @@
       <c r="AD195" s="32" t="n"/>
     </row>
     <row r="196" ht="15.75" customHeight="1" s="24">
-      <c r="A196" s="33" t="inlineStr">
-        <is>
-          <t>ﾘﾋﾞｵ浦和上木崎ｸﾞﾗﾝｾｰﾇ</t>
-        </is>
-      </c>
-      <c r="B196" s="34" t="inlineStr">
-        <is>
-          <t>P01905</t>
-        </is>
-      </c>
-      <c r="C196" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A196" s="33" t="n"/>
+      <c r="B196" s="34" t="n"/>
+      <c r="C196" s="34" t="n"/>
       <c r="E196" s="31" t="n"/>
       <c r="F196" s="32" t="n"/>
       <c r="G196" s="32" t="n"/>
@@ -18531,21 +18279,9 @@
       <c r="AD196" s="32" t="n"/>
     </row>
     <row r="197" ht="15.75" customHeight="1" s="24">
-      <c r="A197" s="33" t="inlineStr">
-        <is>
-          <t>浦和常盤ｻﾞ･ﾚｼﾞﾃﾞﾝｽ</t>
-        </is>
-      </c>
-      <c r="B197" s="34" t="inlineStr">
-        <is>
-          <t>P01906</t>
-        </is>
-      </c>
-      <c r="C197" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A197" s="33" t="n"/>
+      <c r="B197" s="34" t="n"/>
+      <c r="C197" s="34" t="n"/>
       <c r="E197" s="31" t="n"/>
       <c r="F197" s="32" t="n"/>
       <c r="G197" s="32" t="n"/>
@@ -18574,21 +18310,9 @@
       <c r="AD197" s="32" t="n"/>
     </row>
     <row r="198" ht="15.75" customHeight="1" s="24">
-      <c r="A198" s="33" t="inlineStr">
-        <is>
-          <t>ｻﾝﾊｲﾂ常盤平</t>
-        </is>
-      </c>
-      <c r="B198" s="34" t="inlineStr">
-        <is>
-          <t>P01712</t>
-        </is>
-      </c>
-      <c r="C198" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A198" s="33" t="n"/>
+      <c r="B198" s="34" t="n"/>
+      <c r="C198" s="34" t="n"/>
       <c r="E198" s="31" t="n"/>
       <c r="F198" s="32" t="n"/>
       <c r="G198" s="32" t="n"/>
@@ -18617,21 +18341,9 @@
       <c r="AD198" s="32" t="n"/>
     </row>
     <row r="199" ht="15.75" customHeight="1" s="24">
-      <c r="A199" s="33" t="inlineStr">
-        <is>
-          <t>ﾌﾞﾗﾝｽﾞ千葉中央ﾊﾟｰｸﾌﾛﾝﾄ</t>
-        </is>
-      </c>
-      <c r="B199" s="34" t="inlineStr">
-        <is>
-          <t>P01718</t>
-        </is>
-      </c>
-      <c r="C199" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A199" s="33" t="n"/>
+      <c r="B199" s="34" t="n"/>
+      <c r="C199" s="34" t="n"/>
       <c r="E199" s="31" t="n"/>
       <c r="F199" s="32" t="n"/>
       <c r="G199" s="32" t="n"/>
@@ -18660,21 +18372,9 @@
       <c r="AD199" s="32" t="n"/>
     </row>
     <row r="200" ht="15.75" customHeight="1" s="24">
-      <c r="A200" s="33" t="inlineStr">
-        <is>
-          <t>新宿ﾍﾟｶﾞｻｽ館</t>
-        </is>
-      </c>
-      <c r="B200" s="34" t="inlineStr">
-        <is>
-          <t>P01191</t>
-        </is>
-      </c>
-      <c r="C200" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A200" s="33" t="n"/>
+      <c r="B200" s="34" t="n"/>
+      <c r="C200" s="34" t="n"/>
       <c r="E200" s="31" t="n"/>
       <c r="F200" s="32" t="n"/>
       <c r="G200" s="32" t="n"/>
@@ -18703,21 +18403,9 @@
       <c r="AD200" s="32" t="n"/>
     </row>
     <row r="201" ht="15.75" customHeight="1" s="24">
-      <c r="A201" s="33" t="inlineStr">
-        <is>
-          <t>深沢ﾊｳｽ</t>
-        </is>
-      </c>
-      <c r="B201" s="34" t="inlineStr">
-        <is>
-          <t>P01193</t>
-        </is>
-      </c>
-      <c r="C201" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A201" s="33" t="n"/>
+      <c r="B201" s="34" t="n"/>
+      <c r="C201" s="34" t="n"/>
       <c r="E201" s="31" t="n"/>
       <c r="F201" s="32" t="n"/>
       <c r="G201" s="32" t="n"/>
@@ -18746,21 +18434,9 @@
       <c r="AD201" s="32" t="n"/>
     </row>
     <row r="202" ht="15.75" customHeight="1" s="24">
-      <c r="A202" s="33" t="inlineStr">
-        <is>
-          <t>ﾙﾅｺｰﾄ等々力</t>
-        </is>
-      </c>
-      <c r="B202" s="34" t="inlineStr">
-        <is>
-          <t>P01184</t>
-        </is>
-      </c>
-      <c r="C202" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A202" s="33" t="n"/>
+      <c r="B202" s="34" t="n"/>
+      <c r="C202" s="34" t="n"/>
       <c r="E202" s="31" t="n"/>
       <c r="F202" s="32" t="n"/>
       <c r="G202" s="32" t="n"/>
@@ -18789,21 +18465,9 @@
       <c r="AD202" s="32" t="n"/>
     </row>
     <row r="203" ht="15.75" customHeight="1" s="24">
-      <c r="A203" s="33" t="inlineStr">
-        <is>
-          <t>ﾊﾟｰｸｺｰﾄ神宮前</t>
-        </is>
-      </c>
-      <c r="B203" s="34" t="inlineStr">
-        <is>
-          <t>P01262</t>
-        </is>
-      </c>
-      <c r="C203" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A203" s="33" t="n"/>
+      <c r="B203" s="34" t="n"/>
+      <c r="C203" s="34" t="n"/>
       <c r="E203" s="31" t="n"/>
       <c r="F203" s="32" t="n"/>
       <c r="G203" s="32" t="n"/>
@@ -18832,21 +18496,9 @@
       <c r="AD203" s="32" t="n"/>
     </row>
     <row r="204" ht="15.75" customHeight="1" s="24">
-      <c r="A204" s="33" t="inlineStr">
-        <is>
-          <t>神宮前ﾊｳｽ</t>
-        </is>
-      </c>
-      <c r="B204" s="34" t="inlineStr">
-        <is>
-          <t>P01194</t>
-        </is>
-      </c>
-      <c r="C204" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A204" s="33" t="n"/>
+      <c r="B204" s="34" t="n"/>
+      <c r="C204" s="34" t="n"/>
       <c r="E204" s="31" t="n"/>
       <c r="F204" s="32" t="n"/>
       <c r="G204" s="32" t="n"/>
@@ -18875,21 +18527,9 @@
       <c r="AD204" s="32" t="n"/>
     </row>
     <row r="205" ht="15.75" customHeight="1" s="24">
-      <c r="A205" s="33" t="inlineStr">
-        <is>
-          <t>ﾊﾟｰｸﾎｰﾑｽﾞ千代田淡路町</t>
-        </is>
-      </c>
-      <c r="B205" s="34" t="inlineStr">
-        <is>
-          <t>P01204</t>
-        </is>
-      </c>
-      <c r="C205" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A205" s="33" t="n"/>
+      <c r="B205" s="34" t="n"/>
+      <c r="C205" s="34" t="n"/>
       <c r="E205" s="31" t="n"/>
       <c r="F205" s="32" t="n"/>
       <c r="G205" s="32" t="n"/>
@@ -18918,21 +18558,9 @@
       <c r="AD205" s="32" t="n"/>
     </row>
     <row r="206" ht="15.75" customHeight="1" s="24">
-      <c r="A206" s="33" t="inlineStr">
-        <is>
-          <t>ﾗﾃｨｱ</t>
-        </is>
-      </c>
-      <c r="B206" s="34" t="inlineStr">
-        <is>
-          <t>P01164</t>
-        </is>
-      </c>
-      <c r="C206" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A206" s="33" t="n"/>
+      <c r="B206" s="34" t="n"/>
+      <c r="C206" s="34" t="n"/>
       <c r="E206" s="31" t="n"/>
       <c r="F206" s="32" t="n"/>
       <c r="G206" s="32" t="n"/>
@@ -18961,21 +18589,9 @@
       <c r="AD206" s="32" t="n"/>
     </row>
     <row r="207" ht="15.75" customHeight="1" s="24">
-      <c r="A207" s="33" t="inlineStr">
-        <is>
-          <t>ﾘﾋﾞｵﾚｿﾞﾝ清澄庭園</t>
-        </is>
-      </c>
-      <c r="B207" s="34" t="inlineStr">
-        <is>
-          <t>P01167</t>
-        </is>
-      </c>
-      <c r="C207" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A207" s="33" t="n"/>
+      <c r="B207" s="34" t="n"/>
+      <c r="C207" s="34" t="n"/>
       <c r="E207" s="31" t="n"/>
       <c r="F207" s="32" t="n"/>
       <c r="G207" s="32" t="n"/>
@@ -19004,21 +18620,9 @@
       <c r="AD207" s="32" t="n"/>
     </row>
     <row r="208" ht="15.75" customHeight="1" s="24">
-      <c r="A208" s="33" t="inlineStr">
-        <is>
-          <t>ﾄﾞﾚｯｾ目黒ｲﾝﾌﾟﾚｽﾀﾜｰ</t>
-        </is>
-      </c>
-      <c r="B208" s="34" t="inlineStr">
-        <is>
-          <t>P01133</t>
-        </is>
-      </c>
-      <c r="C208" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A208" s="33" t="n"/>
+      <c r="B208" s="34" t="n"/>
+      <c r="C208" s="34" t="n"/>
       <c r="E208" s="31" t="n"/>
       <c r="F208" s="32" t="n"/>
       <c r="G208" s="32" t="n"/>
@@ -19047,21 +18651,9 @@
       <c r="AD208" s="32" t="n"/>
     </row>
     <row r="209" ht="15.75" customHeight="1" s="24">
-      <c r="A209" s="33" t="inlineStr">
-        <is>
-          <t>ﾓｱｱﾍﾟｯｸｽ西小岩</t>
-        </is>
-      </c>
-      <c r="B209" s="34" t="inlineStr">
-        <is>
-          <t>P01162</t>
-        </is>
-      </c>
-      <c r="C209" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A209" s="33" t="n"/>
+      <c r="B209" s="34" t="n"/>
+      <c r="C209" s="34" t="n"/>
       <c r="E209" s="31" t="n"/>
       <c r="F209" s="32" t="n"/>
       <c r="G209" s="32" t="n"/>
@@ -19090,21 +18682,9 @@
       <c r="AD209" s="32" t="n"/>
     </row>
     <row r="210" ht="15.75" customHeight="1" s="24">
-      <c r="A210" s="33" t="inlineStr">
-        <is>
-          <t>ﾊﾟｰｸﾀﾜｰ西新宿ｴﾑｽﾞﾎﾟｰﾄ</t>
-        </is>
-      </c>
-      <c r="B210" s="34" t="inlineStr">
-        <is>
-          <t>P01136</t>
-        </is>
-      </c>
-      <c r="C210" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A210" s="33" t="n"/>
+      <c r="B210" s="34" t="n"/>
+      <c r="C210" s="34" t="n"/>
       <c r="E210" s="31" t="n"/>
       <c r="F210" s="32" t="n"/>
       <c r="G210" s="32" t="n"/>
@@ -19133,21 +18713,9 @@
       <c r="AD210" s="32" t="n"/>
     </row>
     <row r="211" ht="15.75" customHeight="1" s="24">
-      <c r="A211" s="33" t="inlineStr">
-        <is>
-          <t>新小岩ﾊﾟｰｸ･ﾎｰﾑｽﾞ</t>
-        </is>
-      </c>
-      <c r="B211" s="34" t="inlineStr">
-        <is>
-          <t>P01192</t>
-        </is>
-      </c>
-      <c r="C211" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A211" s="33" t="n"/>
+      <c r="B211" s="34" t="n"/>
+      <c r="C211" s="34" t="n"/>
       <c r="E211" s="31" t="n"/>
       <c r="F211" s="32" t="n"/>
       <c r="G211" s="32" t="n"/>
@@ -19176,21 +18744,9 @@
       <c r="AD211" s="32" t="n"/>
     </row>
     <row r="212" ht="15.75" customHeight="1" s="24">
-      <c r="A212" s="33" t="inlineStr">
-        <is>
-          <t>ﾓｱｸﾚｽﾄ西台</t>
-        </is>
-      </c>
-      <c r="B212" s="34" t="inlineStr">
-        <is>
-          <t>P01233</t>
-        </is>
-      </c>
-      <c r="C212" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A212" s="33" t="n"/>
+      <c r="B212" s="34" t="n"/>
+      <c r="C212" s="34" t="n"/>
       <c r="E212" s="31" t="n"/>
       <c r="F212" s="32" t="n"/>
       <c r="G212" s="32" t="n"/>
@@ -19219,21 +18775,9 @@
       <c r="AD212" s="32" t="n"/>
     </row>
     <row r="213" ht="15.75" customHeight="1" s="24">
-      <c r="A213" s="36" t="inlineStr">
-        <is>
-          <t>UVAS池袋</t>
-        </is>
-      </c>
-      <c r="B213" s="34" t="inlineStr">
-        <is>
-          <t>P01250</t>
-        </is>
-      </c>
-      <c r="C213" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A213" s="36" t="n"/>
+      <c r="B213" s="34" t="n"/>
+      <c r="C213" s="34" t="n"/>
       <c r="E213" s="31" t="n"/>
       <c r="F213" s="32" t="n"/>
       <c r="G213" s="32" t="n"/>
@@ -19262,21 +18806,9 @@
       <c r="AD213" s="32" t="n"/>
     </row>
     <row r="214" ht="15.75" customHeight="1" s="24">
-      <c r="A214" s="33" t="inlineStr">
-        <is>
-          <t>ﾘﾋﾞｵ日暮里ｸﾞﾗﾝﾄﾞｽｲｰﾄ</t>
-        </is>
-      </c>
-      <c r="B214" s="34" t="inlineStr">
-        <is>
-          <t>P01176</t>
-        </is>
-      </c>
-      <c r="C214" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A214" s="33" t="n"/>
+      <c r="B214" s="34" t="n"/>
+      <c r="C214" s="34" t="n"/>
       <c r="E214" s="31" t="n"/>
       <c r="F214" s="32" t="n"/>
       <c r="G214" s="32" t="n"/>
@@ -19305,21 +18837,9 @@
       <c r="AD214" s="32" t="n"/>
     </row>
     <row r="215" ht="15.75" customHeight="1" s="24">
-      <c r="A215" s="33" t="inlineStr">
-        <is>
-          <t>ﾌﾟﾗﾊﾌｨﾗｰﾚ西糀谷</t>
-        </is>
-      </c>
-      <c r="B215" s="34" t="inlineStr">
-        <is>
-          <t>P01153</t>
-        </is>
-      </c>
-      <c r="C215" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A215" s="33" t="n"/>
+      <c r="B215" s="34" t="n"/>
+      <c r="C215" s="34" t="n"/>
       <c r="E215" s="31" t="n"/>
       <c r="F215" s="32" t="n"/>
       <c r="G215" s="32" t="n"/>
@@ -19348,21 +18868,9 @@
       <c r="AD215" s="32" t="n"/>
     </row>
     <row r="216" ht="15.75" customHeight="1" s="24">
-      <c r="A216" s="33" t="inlineStr">
-        <is>
-          <t>ｸﾚｽﾄﾌｫﾙﾑ湘南辻堂ｸﾞﾗﾝｽﾃｰｼﾞ</t>
-        </is>
-      </c>
-      <c r="B216" s="34" t="inlineStr">
-        <is>
-          <t>P01504</t>
-        </is>
-      </c>
-      <c r="C216" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A216" s="33" t="n"/>
+      <c r="B216" s="34" t="n"/>
+      <c r="C216" s="34" t="n"/>
       <c r="E216" s="31" t="n"/>
       <c r="F216" s="32" t="n"/>
       <c r="G216" s="32" t="n"/>
@@ -19391,21 +18899,9 @@
       <c r="AD216" s="32" t="n"/>
     </row>
     <row r="217" ht="15.75" customHeight="1" s="24">
-      <c r="A217" s="33" t="inlineStr">
-        <is>
-          <t>ｾﾙﾃｼﾃｨｵ湘南辻堂</t>
-        </is>
-      </c>
-      <c r="B217" s="34" t="inlineStr">
-        <is>
-          <t>P01509</t>
-        </is>
-      </c>
-      <c r="C217" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A217" s="33" t="n"/>
+      <c r="B217" s="34" t="n"/>
+      <c r="C217" s="34" t="n"/>
       <c r="E217" s="31" t="n"/>
       <c r="F217" s="32" t="n"/>
       <c r="G217" s="32" t="n"/>
@@ -19434,21 +18930,9 @@
       <c r="AD217" s="32" t="n"/>
     </row>
     <row r="218" ht="15.75" customHeight="1" s="24">
-      <c r="A218" s="33" t="inlineStr">
-        <is>
-          <t>ﾌﾞﾗｲﾄﾋﾙｽﾞ</t>
-        </is>
-      </c>
-      <c r="B218" s="34" t="inlineStr">
-        <is>
-          <t>P01151</t>
-        </is>
-      </c>
-      <c r="C218" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A218" s="33" t="n"/>
+      <c r="B218" s="34" t="n"/>
+      <c r="C218" s="34" t="n"/>
       <c r="E218" s="31" t="n"/>
       <c r="F218" s="32" t="n"/>
       <c r="G218" s="32" t="n"/>
@@ -19477,21 +18961,9 @@
       <c r="AD218" s="32" t="n"/>
     </row>
     <row r="219" ht="15.75" customHeight="1" s="24">
-      <c r="A219" s="33" t="inlineStr">
-        <is>
-          <t>ﾐﾘｵﾝｺｰﾄ西荻窪</t>
-        </is>
-      </c>
-      <c r="B219" s="34" t="inlineStr">
-        <is>
-          <t>P01269</t>
-        </is>
-      </c>
-      <c r="C219" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A219" s="33" t="n"/>
+      <c r="B219" s="34" t="n"/>
+      <c r="C219" s="34" t="n"/>
       <c r="E219" s="31" t="n"/>
       <c r="F219" s="32" t="n"/>
       <c r="G219" s="32" t="n"/>
@@ -19520,21 +18992,9 @@
       <c r="AD219" s="32" t="n"/>
     </row>
     <row r="220" ht="15.75" customHeight="1" s="24">
-      <c r="A220" s="33" t="inlineStr">
-        <is>
-          <t>相模大野ﾊｲﾗｲｽﾞ</t>
-        </is>
-      </c>
-      <c r="B220" s="34" t="inlineStr">
-        <is>
-          <t>P01523</t>
-        </is>
-      </c>
-      <c r="C220" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A220" s="33" t="n"/>
+      <c r="B220" s="34" t="n"/>
+      <c r="C220" s="34" t="n"/>
       <c r="E220" s="31" t="n"/>
       <c r="F220" s="32" t="n"/>
       <c r="G220" s="32" t="n"/>
@@ -19563,21 +19023,9 @@
       <c r="AD220" s="32" t="n"/>
     </row>
     <row r="221" ht="15.75" customHeight="1" s="24">
-      <c r="A221" s="33" t="inlineStr">
-        <is>
-          <t>ﾒｿﾞﾝｴｸﾚｰﾚ新宿西戸山</t>
-        </is>
-      </c>
-      <c r="B221" s="34" t="inlineStr">
-        <is>
-          <t>P01234</t>
-        </is>
-      </c>
-      <c r="C221" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A221" s="33" t="n"/>
+      <c r="B221" s="34" t="n"/>
+      <c r="C221" s="34" t="n"/>
       <c r="E221" s="31" t="n"/>
       <c r="F221" s="32" t="n"/>
       <c r="G221" s="32" t="n"/>
@@ -19606,21 +19054,9 @@
       <c r="AD221" s="32" t="n"/>
     </row>
     <row r="222" ht="15.75" customHeight="1" s="24">
-      <c r="A222" s="33" t="inlineStr">
-        <is>
-          <t>ﾗﾐｰﾕ勝田台ﾊｲﾗｲｽﾞ</t>
-        </is>
-      </c>
-      <c r="B222" s="34" t="inlineStr">
-        <is>
-          <t>P01719</t>
-        </is>
-      </c>
-      <c r="C222" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A222" s="33" t="n"/>
+      <c r="B222" s="34" t="n"/>
+      <c r="C222" s="34" t="n"/>
       <c r="E222" s="31" t="n"/>
       <c r="F222" s="32" t="n"/>
       <c r="G222" s="32" t="n"/>
@@ -19649,21 +19085,9 @@
       <c r="AD222" s="32" t="n"/>
     </row>
     <row r="223" ht="15.75" customHeight="1" s="24">
-      <c r="A223" s="33" t="inlineStr">
-        <is>
-          <t>大森ﾌﾟﾛｽﾄｼﾃｨﾚｼﾞﾃﾞﾝｽ</t>
-        </is>
-      </c>
-      <c r="B223" s="34" t="inlineStr">
-        <is>
-          <t>P01196</t>
-        </is>
-      </c>
-      <c r="C223" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A223" s="33" t="n"/>
+      <c r="B223" s="34" t="n"/>
+      <c r="C223" s="34" t="n"/>
       <c r="E223" s="31" t="n"/>
       <c r="F223" s="32" t="n"/>
       <c r="G223" s="32" t="n"/>
@@ -19692,21 +19116,9 @@
       <c r="AD223" s="32" t="n"/>
     </row>
     <row r="224" ht="15.75" customHeight="1" s="24">
-      <c r="A224" s="33" t="inlineStr">
-        <is>
-          <t>ﾗ･ｱﾙｸｽ鷹番</t>
-        </is>
-      </c>
-      <c r="B224" s="34" t="inlineStr">
-        <is>
-          <t>P01163</t>
-        </is>
-      </c>
-      <c r="C224" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A224" s="33" t="n"/>
+      <c r="B224" s="34" t="n"/>
+      <c r="C224" s="34" t="n"/>
       <c r="E224" s="31" t="n"/>
       <c r="F224" s="32" t="n"/>
       <c r="G224" s="32" t="n"/>
@@ -19735,21 +19147,9 @@
       <c r="AD224" s="32" t="n"/>
     </row>
     <row r="225" ht="15.75" customHeight="1" s="24">
-      <c r="A225" s="33" t="inlineStr">
-        <is>
-          <t>ﾊﾞｳｽ津田沼</t>
-        </is>
-      </c>
-      <c r="B225" s="34" t="inlineStr">
-        <is>
-          <t>P01728</t>
-        </is>
-      </c>
-      <c r="C225" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A225" s="33" t="n"/>
+      <c r="B225" s="34" t="n"/>
+      <c r="C225" s="34" t="n"/>
       <c r="E225" s="31" t="n"/>
       <c r="F225" s="32" t="n"/>
       <c r="G225" s="32" t="n"/>
@@ -19778,21 +19178,9 @@
       <c r="AD225" s="32" t="n"/>
     </row>
     <row r="226" ht="15.75" customHeight="1" s="24">
-      <c r="A226" s="33" t="inlineStr">
-        <is>
-          <t>ｳｪﾙｹｱﾃﾗｽ谷津</t>
-        </is>
-      </c>
-      <c r="B226" s="34" t="inlineStr">
-        <is>
-          <t>P01726</t>
-        </is>
-      </c>
-      <c r="C226" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A226" s="33" t="n"/>
+      <c r="B226" s="34" t="n"/>
+      <c r="C226" s="34" t="n"/>
       <c r="E226" s="31" t="n"/>
       <c r="F226" s="32" t="n"/>
       <c r="G226" s="32" t="n"/>
@@ -19821,21 +19209,9 @@
       <c r="AD226" s="32" t="n"/>
     </row>
     <row r="227" ht="15.75" customHeight="1" s="24">
-      <c r="A227" s="33" t="inlineStr">
-        <is>
-          <t>ｱｰﾙﾌﾞﾗﾝ綱島</t>
-        </is>
-      </c>
-      <c r="B227" s="34" t="inlineStr">
-        <is>
-          <t>P01500</t>
-        </is>
-      </c>
-      <c r="C227" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A227" s="33" t="n"/>
+      <c r="B227" s="34" t="n"/>
+      <c r="C227" s="34" t="n"/>
       <c r="E227" s="31" t="n"/>
       <c r="F227" s="32" t="n"/>
       <c r="G227" s="32" t="n"/>
@@ -19864,21 +19240,9 @@
       <c r="AD227" s="32" t="n"/>
     </row>
     <row r="228" ht="15.75" customHeight="1" s="24">
-      <c r="A228" s="33" t="inlineStr">
-        <is>
-          <t>ｶﾞｰﾃﾞﾝﾎｰﾑ池上Ⅱ</t>
-        </is>
-      </c>
-      <c r="B228" s="34" t="inlineStr">
-        <is>
-          <t>P01235</t>
-        </is>
-      </c>
-      <c r="C228" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A228" s="33" t="n"/>
+      <c r="B228" s="34" t="n"/>
+      <c r="C228" s="34" t="n"/>
       <c r="E228" s="31" t="n"/>
       <c r="F228" s="32" t="n"/>
       <c r="G228" s="32" t="n"/>
@@ -19907,21 +19271,9 @@
       <c r="AD228" s="32" t="n"/>
     </row>
     <row r="229" ht="15.75" customHeight="1" s="24">
-      <c r="A229" s="33" t="inlineStr">
-        <is>
-          <t>ﾘﾋﾞｵﾚｿﾞﾝ東銀座</t>
-        </is>
-      </c>
-      <c r="B229" s="34" t="inlineStr">
-        <is>
-          <t>P01169</t>
-        </is>
-      </c>
-      <c r="C229" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A229" s="33" t="n"/>
+      <c r="B229" s="34" t="n"/>
+      <c r="C229" s="34" t="n"/>
       <c r="E229" s="31" t="n"/>
       <c r="F229" s="32" t="n"/>
       <c r="G229" s="32" t="n"/>
@@ -19950,21 +19302,9 @@
       <c r="AD229" s="32" t="n"/>
     </row>
     <row r="230" ht="15.75" customHeight="1" s="24">
-      <c r="A230" s="33" t="inlineStr">
-        <is>
-          <t>ﾌﾟﾚﾐｱﾑﾚｼﾞﾃﾞﾝｽ千葉県立美術館前</t>
-        </is>
-      </c>
-      <c r="B230" s="34" t="inlineStr">
-        <is>
-          <t>P01700</t>
-        </is>
-      </c>
-      <c r="C230" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A230" s="33" t="n"/>
+      <c r="B230" s="34" t="n"/>
+      <c r="C230" s="34" t="n"/>
       <c r="E230" s="31" t="n"/>
       <c r="F230" s="32" t="n"/>
       <c r="G230" s="32" t="n"/>
@@ -19993,21 +19333,9 @@
       <c r="AD230" s="32" t="n"/>
     </row>
     <row r="231" ht="15.75" customHeight="1" s="24">
-      <c r="A231" s="33" t="inlineStr">
-        <is>
-          <t>ﾊﾟｰｸﾎｰﾑｽﾞ亀有ｶﾞｰﾃﾞﾝｽﾞｺｰﾄ</t>
-        </is>
-      </c>
-      <c r="B231" s="34" t="inlineStr">
-        <is>
-          <t>P01230</t>
-        </is>
-      </c>
-      <c r="C231" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A231" s="33" t="n"/>
+      <c r="B231" s="34" t="n"/>
+      <c r="C231" s="34" t="n"/>
       <c r="E231" s="31" t="n"/>
       <c r="F231" s="32" t="n"/>
       <c r="G231" s="32" t="n"/>
@@ -20036,21 +19364,9 @@
       <c r="AD231" s="32" t="n"/>
     </row>
     <row r="232" ht="15.75" customHeight="1" s="24">
-      <c r="A232" s="33" t="inlineStr">
-        <is>
-          <t>ｽﾃｰｼﾞﾊｳｽ等々力</t>
-        </is>
-      </c>
-      <c r="B232" s="34" t="inlineStr">
-        <is>
-          <t>P01207</t>
-        </is>
-      </c>
-      <c r="C232" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A232" s="33" t="n"/>
+      <c r="B232" s="34" t="n"/>
+      <c r="C232" s="34" t="n"/>
       <c r="E232" s="31" t="n"/>
       <c r="F232" s="32" t="n"/>
       <c r="G232" s="32" t="n"/>
@@ -20079,21 +19395,9 @@
       <c r="AD232" s="32" t="n"/>
     </row>
     <row r="233" ht="15.75" customHeight="1" s="24">
-      <c r="A233" s="33" t="inlineStr">
-        <is>
-          <t>東急ﾄﾞｴﾙｱﾙｽ津田沼南</t>
-        </is>
-      </c>
-      <c r="B233" s="34" t="inlineStr">
-        <is>
-          <t>P01721</t>
-        </is>
-      </c>
-      <c r="C233" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A233" s="33" t="n"/>
+      <c r="B233" s="34" t="n"/>
+      <c r="C233" s="34" t="n"/>
       <c r="E233" s="31" t="n"/>
       <c r="F233" s="32" t="n"/>
       <c r="G233" s="32" t="n"/>
@@ -20122,21 +19426,9 @@
       <c r="AD233" s="32" t="n"/>
     </row>
     <row r="234" ht="15.75" customHeight="1" s="24">
-      <c r="A234" s="33" t="inlineStr">
-        <is>
-          <t>ﾊﾟｰｸﾀﾜｰｸﾞﾗﾝｽｶｲ</t>
-        </is>
-      </c>
-      <c r="B234" s="34" t="inlineStr">
-        <is>
-          <t>P01270</t>
-        </is>
-      </c>
-      <c r="C234" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A234" s="33" t="n"/>
+      <c r="B234" s="34" t="n"/>
+      <c r="C234" s="34" t="n"/>
       <c r="E234" s="31" t="n"/>
       <c r="F234" s="32" t="n"/>
       <c r="G234" s="32" t="n"/>
@@ -20165,21 +19457,9 @@
       <c r="AD234" s="32" t="n"/>
     </row>
     <row r="235" ht="15.75" customHeight="1" s="24">
-      <c r="A235" s="33" t="inlineStr">
-        <is>
-          <t>ﾘﾋﾞｵ東雪谷ｳﾞｧﾘｴ</t>
-        </is>
-      </c>
-      <c r="B235" s="34" t="inlineStr">
-        <is>
-          <t>P01175</t>
-        </is>
-      </c>
-      <c r="C235" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A235" s="33" t="n"/>
+      <c r="B235" s="34" t="n"/>
+      <c r="C235" s="34" t="n"/>
       <c r="E235" s="31" t="n"/>
       <c r="F235" s="32" t="n"/>
       <c r="G235" s="32" t="n"/>
@@ -20208,21 +19488,9 @@
       <c r="AD235" s="32" t="n"/>
     </row>
     <row r="236" ht="15.75" customHeight="1" s="24">
-      <c r="A236" s="33" t="inlineStr">
-        <is>
-          <t>ﾌﾟﾚﾐｱﾑﾚｼﾞﾃﾞﾝｽ日暮里雅苑</t>
-        </is>
-      </c>
-      <c r="B236" s="34" t="inlineStr">
-        <is>
-          <t>P01102</t>
-        </is>
-      </c>
-      <c r="C236" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A236" s="33" t="n"/>
+      <c r="B236" s="34" t="n"/>
+      <c r="C236" s="34" t="n"/>
       <c r="E236" s="31" t="n"/>
       <c r="F236" s="32" t="n"/>
       <c r="G236" s="32" t="n"/>
@@ -20251,21 +19519,9 @@
       <c r="AD236" s="32" t="n"/>
     </row>
     <row r="237" ht="15.75" customHeight="1" s="24">
-      <c r="A237" s="33" t="inlineStr">
-        <is>
-          <t>ﾌﾟﾗｲﾑﾊﾟｰｸｽ品川ｼｰｻｲﾄﾞｻﾞ･ﾀﾜｰ</t>
-        </is>
-      </c>
-      <c r="B237" s="34" t="inlineStr">
-        <is>
-          <t>P01205</t>
-        </is>
-      </c>
-      <c r="C237" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A237" s="33" t="n"/>
+      <c r="B237" s="34" t="n"/>
+      <c r="C237" s="34" t="n"/>
       <c r="E237" s="31" t="n"/>
       <c r="F237" s="32" t="n"/>
       <c r="G237" s="32" t="n"/>
@@ -20294,21 +19550,9 @@
       <c r="AD237" s="32" t="n"/>
     </row>
     <row r="238" ht="15.75" customHeight="1" s="24">
-      <c r="A238" s="33" t="inlineStr">
-        <is>
-          <t>ｼｬﾙﾏﾝ東品川</t>
-        </is>
-      </c>
-      <c r="B238" s="34" t="inlineStr">
-        <is>
-          <t>P01128</t>
-        </is>
-      </c>
-      <c r="C238" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A238" s="33" t="n"/>
+      <c r="B238" s="34" t="n"/>
+      <c r="C238" s="34" t="n"/>
       <c r="E238" s="31" t="n"/>
       <c r="F238" s="32" t="n"/>
       <c r="G238" s="32" t="n"/>
@@ -20337,21 +19581,9 @@
       <c r="AD238" s="32" t="n"/>
     </row>
     <row r="239" ht="15.75" customHeight="1" s="24">
-      <c r="A239" s="33" t="inlineStr">
-        <is>
-          <t>東陽町ｽｶｲﾊｲﾂ</t>
-        </is>
-      </c>
-      <c r="B239" s="34" t="inlineStr">
-        <is>
-          <t>P01200</t>
-        </is>
-      </c>
-      <c r="C239" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A239" s="33" t="n"/>
+      <c r="B239" s="34" t="n"/>
+      <c r="C239" s="34" t="n"/>
       <c r="E239" s="31" t="n"/>
       <c r="F239" s="32" t="n"/>
       <c r="G239" s="32" t="n"/>
@@ -20380,21 +19612,9 @@
       <c r="AD239" s="32" t="n"/>
     </row>
     <row r="240" ht="15.75" customHeight="1" s="24">
-      <c r="A240" s="33" t="inlineStr">
-        <is>
-          <t>ｻﾞ･ｸﾞﾗﾝﾂ等々力</t>
-        </is>
-      </c>
-      <c r="B240" s="34" t="inlineStr">
-        <is>
-          <t>P01124</t>
-        </is>
-      </c>
-      <c r="C240" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A240" s="33" t="n"/>
+      <c r="B240" s="34" t="n"/>
+      <c r="C240" s="34" t="n"/>
       <c r="E240" s="31" t="n"/>
       <c r="F240" s="32" t="n"/>
       <c r="G240" s="32" t="n"/>
@@ -20423,21 +19643,9 @@
       <c r="AD240" s="32" t="n"/>
     </row>
     <row r="241" ht="15.75" customHeight="1" s="24">
-      <c r="A241" s="33" t="inlineStr">
-        <is>
-          <t>ﾋﾟｱｰｽｺｰﾄﾞ目黒洗足</t>
-        </is>
-      </c>
-      <c r="B241" s="34" t="inlineStr">
-        <is>
-          <t>P01143</t>
-        </is>
-      </c>
-      <c r="C241" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A241" s="33" t="n"/>
+      <c r="B241" s="34" t="n"/>
+      <c r="C241" s="34" t="n"/>
       <c r="E241" s="31" t="n"/>
       <c r="F241" s="32" t="n"/>
       <c r="G241" s="32" t="n"/>
@@ -20466,21 +19674,9 @@
       <c r="AD241" s="32" t="n"/>
     </row>
     <row r="242" ht="15.75" customHeight="1" s="24">
-      <c r="A242" s="33" t="inlineStr">
-        <is>
-          <t>ｸﾞﾘｰﾝﾋﾙｽﾞ芦花</t>
-        </is>
-      </c>
-      <c r="B242" s="34" t="inlineStr">
-        <is>
-          <t>P01248</t>
-        </is>
-      </c>
-      <c r="C242" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A242" s="33" t="n"/>
+      <c r="B242" s="34" t="n"/>
+      <c r="C242" s="34" t="n"/>
       <c r="E242" s="31" t="n"/>
       <c r="F242" s="32" t="n"/>
       <c r="G242" s="32" t="n"/>
@@ -20509,21 +19705,9 @@
       <c r="AD242" s="32" t="n"/>
     </row>
     <row r="243" ht="15.75" customHeight="1" s="24">
-      <c r="A243" s="33" t="inlineStr">
-        <is>
-          <t>ﾐｰﾙ千歳烏山</t>
-        </is>
-      </c>
-      <c r="B243" s="34" t="inlineStr">
-        <is>
-          <t>P01225</t>
-        </is>
-      </c>
-      <c r="C243" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A243" s="33" t="n"/>
+      <c r="B243" s="34" t="n"/>
+      <c r="C243" s="34" t="n"/>
       <c r="E243" s="31" t="n"/>
       <c r="F243" s="32" t="n"/>
       <c r="G243" s="32" t="n"/>
@@ -20552,21 +19736,9 @@
       <c r="AD243" s="32" t="n"/>
     </row>
     <row r="244" ht="15.75" customHeight="1" s="24">
-      <c r="A244" s="33" t="inlineStr">
-        <is>
-          <t>ｸﾞﾗﾝﾌﾟﾗｰｻﾞ新越谷</t>
-        </is>
-      </c>
-      <c r="B244" s="34" t="inlineStr">
-        <is>
-          <t>P01900</t>
-        </is>
-      </c>
-      <c r="C244" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A244" s="33" t="n"/>
+      <c r="B244" s="34" t="n"/>
+      <c r="C244" s="34" t="n"/>
       <c r="E244" s="31" t="n"/>
       <c r="F244" s="32" t="n"/>
       <c r="G244" s="32" t="n"/>
@@ -20595,21 +19767,9 @@
       <c r="AD244" s="32" t="n"/>
     </row>
     <row r="245" ht="15.75" customHeight="1" s="24">
-      <c r="A245" s="33" t="inlineStr">
-        <is>
-          <t>ﾌｪｱﾛｰｼﾞｭ西荻窪</t>
-        </is>
-      </c>
-      <c r="B245" s="34" t="inlineStr">
-        <is>
-          <t>P01147</t>
-        </is>
-      </c>
-      <c r="C245" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A245" s="33" t="n"/>
+      <c r="B245" s="34" t="n"/>
+      <c r="C245" s="34" t="n"/>
       <c r="E245" s="31" t="n"/>
       <c r="F245" s="32" t="n"/>
       <c r="G245" s="32" t="n"/>
@@ -20638,21 +19798,9 @@
       <c r="AD245" s="32" t="n"/>
     </row>
     <row r="246" ht="15.75" customHeight="1" s="24">
-      <c r="A246" s="33" t="inlineStr">
-        <is>
-          <t>ﾌﾟﾚｳﾞｨｵ橋本</t>
-        </is>
-      </c>
-      <c r="B246" s="34" t="inlineStr">
-        <is>
-          <t>P01521</t>
-        </is>
-      </c>
-      <c r="C246" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A246" s="33" t="n"/>
+      <c r="B246" s="34" t="n"/>
+      <c r="C246" s="34" t="n"/>
       <c r="E246" s="31" t="n"/>
       <c r="F246" s="32" t="n"/>
       <c r="G246" s="32" t="n"/>
@@ -20681,21 +19829,9 @@
       <c r="AD246" s="32" t="n"/>
     </row>
     <row r="247" ht="15.75" customHeight="1" s="24">
-      <c r="A247" s="33" t="inlineStr">
-        <is>
-          <t>南青山ｼﾃｨﾊｳｽ</t>
-        </is>
-      </c>
-      <c r="B247" s="34" t="inlineStr">
-        <is>
-          <t>P01255</t>
-        </is>
-      </c>
-      <c r="C247" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A247" s="33" t="n"/>
+      <c r="B247" s="34" t="n"/>
+      <c r="C247" s="34" t="n"/>
       <c r="E247" s="31" t="n"/>
       <c r="F247" s="32" t="n"/>
       <c r="G247" s="32" t="n"/>
@@ -20724,21 +19860,9 @@
       <c r="AD247" s="32" t="n"/>
     </row>
     <row r="248" ht="15.75" customHeight="1" s="24">
-      <c r="A248" s="33" t="inlineStr">
-        <is>
-          <t>ﾌｪｱﾛｰｼﾞｭ南雪谷</t>
-        </is>
-      </c>
-      <c r="B248" s="34" t="inlineStr">
-        <is>
-          <t>P01148</t>
-        </is>
-      </c>
-      <c r="C248" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A248" s="33" t="n"/>
+      <c r="B248" s="34" t="n"/>
+      <c r="C248" s="34" t="n"/>
       <c r="E248" s="31" t="n"/>
       <c r="F248" s="32" t="n"/>
       <c r="G248" s="32" t="n"/>
@@ -20767,21 +19891,9 @@
       <c r="AD248" s="32" t="n"/>
     </row>
     <row r="249" ht="15.75" customHeight="1" s="24">
-      <c r="A249" s="33" t="inlineStr">
-        <is>
-          <t>ｸﾞﾗﾝｳﾞｪｰﾙ南雪谷</t>
-        </is>
-      </c>
-      <c r="B249" s="34" t="inlineStr">
-        <is>
-          <t>P01116</t>
-        </is>
-      </c>
-      <c r="C249" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A249" s="33" t="n"/>
+      <c r="B249" s="34" t="n"/>
+      <c r="C249" s="34" t="n"/>
       <c r="E249" s="31" t="n"/>
       <c r="F249" s="32" t="n"/>
       <c r="G249" s="32" t="n"/>
@@ -20810,21 +19922,9 @@
       <c r="AD249" s="32" t="n"/>
     </row>
     <row r="250" ht="15.75" customHeight="1" s="24">
-      <c r="A250" s="33" t="inlineStr">
-        <is>
-          <t>ｸﾚｯｾﾝﾄ大森</t>
-        </is>
-      </c>
-      <c r="B250" s="34" t="inlineStr">
-        <is>
-          <t>P01268</t>
-        </is>
-      </c>
-      <c r="C250" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A250" s="33" t="n"/>
+      <c r="B250" s="34" t="n"/>
+      <c r="C250" s="34" t="n"/>
       <c r="E250" s="31" t="n"/>
       <c r="F250" s="32" t="n"/>
       <c r="G250" s="32" t="n"/>
@@ -20853,21 +19953,9 @@
       <c r="AD250" s="32" t="n"/>
     </row>
     <row r="251" ht="15.75" customHeight="1" s="24">
-      <c r="A251" s="33" t="inlineStr">
-        <is>
-          <t>ﾌｧﾐﾈｽ大森</t>
-        </is>
-      </c>
-      <c r="B251" s="34" t="inlineStr">
-        <is>
-          <t>P01144</t>
-        </is>
-      </c>
-      <c r="C251" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A251" s="33" t="n"/>
+      <c r="B251" s="34" t="n"/>
+      <c r="C251" s="34" t="n"/>
       <c r="E251" s="31" t="n"/>
       <c r="F251" s="32" t="n"/>
       <c r="G251" s="32" t="n"/>
@@ -20896,21 +19984,9 @@
       <c r="AD251" s="32" t="n"/>
     </row>
     <row r="252" ht="15.75" customHeight="1" s="24">
-      <c r="A252" s="33" t="inlineStr">
-        <is>
-          <t>ﾘﾋﾞｵﾚｿﾞﾝ南池袋</t>
-        </is>
-      </c>
-      <c r="B252" s="34" t="inlineStr">
-        <is>
-          <t>P01170</t>
-        </is>
-      </c>
-      <c r="C252" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A252" s="33" t="n"/>
+      <c r="B252" s="34" t="n"/>
+      <c r="C252" s="34" t="n"/>
       <c r="E252" s="31" t="n"/>
       <c r="F252" s="32" t="n"/>
       <c r="G252" s="32" t="n"/>
@@ -20939,21 +20015,9 @@
       <c r="AD252" s="32" t="n"/>
     </row>
     <row r="253" ht="15.75" customHeight="1" s="24">
-      <c r="A253" s="33" t="inlineStr">
-        <is>
-          <t>ﾅｲｽｱｰﾊﾞﾝ本八幡</t>
-        </is>
-      </c>
-      <c r="B253" s="34" t="inlineStr">
-        <is>
-          <t>P01722</t>
-        </is>
-      </c>
-      <c r="C253" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A253" s="33" t="n"/>
+      <c r="B253" s="34" t="n"/>
+      <c r="C253" s="34" t="n"/>
       <c r="E253" s="31" t="n"/>
       <c r="F253" s="32" t="n"/>
       <c r="G253" s="32" t="n"/>
@@ -20982,21 +20046,9 @@
       <c r="AD253" s="32" t="n"/>
     </row>
     <row r="254" ht="15.75" customHeight="1" s="24">
-      <c r="A254" s="33" t="inlineStr">
-        <is>
-          <t>ﾌｪｱﾛｰｼﾞｭ南平台</t>
-        </is>
-      </c>
-      <c r="B254" s="34" t="inlineStr">
-        <is>
-          <t>P01149</t>
-        </is>
-      </c>
-      <c r="C254" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A254" s="33" t="n"/>
+      <c r="B254" s="34" t="n"/>
+      <c r="C254" s="34" t="n"/>
       <c r="E254" s="31" t="n"/>
       <c r="F254" s="32" t="n"/>
       <c r="G254" s="32" t="n"/>
@@ -21025,21 +20077,9 @@
       <c r="AD254" s="32" t="n"/>
     </row>
     <row r="255" ht="15.75" customHeight="1" s="24">
-      <c r="A255" s="33" t="inlineStr">
-        <is>
-          <t>ｸﾞﾛｰﾘｱﾊﾟﾚｽ壱･弐番館</t>
-        </is>
-      </c>
-      <c r="B255" s="34" t="inlineStr">
-        <is>
-          <t>P01708</t>
-        </is>
-      </c>
-      <c r="C255" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A255" s="33" t="n"/>
+      <c r="B255" s="34" t="n"/>
+      <c r="C255" s="34" t="n"/>
       <c r="E255" s="31" t="n"/>
       <c r="F255" s="32" t="n"/>
       <c r="G255" s="32" t="n"/>
@@ -21068,21 +20108,9 @@
       <c r="AD255" s="32" t="n"/>
     </row>
     <row r="256" ht="15.75" customHeight="1" s="24">
-      <c r="A256" s="33" t="inlineStr">
-        <is>
-          <t>ﾊﾟｰｸﾘｭｸｽ日本橋小網町mono</t>
-        </is>
-      </c>
-      <c r="B256" s="34" t="inlineStr">
-        <is>
-          <t>P01142</t>
-        </is>
-      </c>
-      <c r="C256" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A256" s="33" t="n"/>
+      <c r="B256" s="34" t="n"/>
+      <c r="C256" s="34" t="n"/>
       <c r="E256" s="31" t="n"/>
       <c r="F256" s="32" t="n"/>
       <c r="G256" s="32" t="n"/>
@@ -21111,21 +20139,9 @@
       <c r="AD256" s="32" t="n"/>
     </row>
     <row r="257" ht="15.75" customHeight="1" s="24">
-      <c r="A257" s="33" t="inlineStr">
-        <is>
-          <t>ﾊﾟｰｸﾎｰﾑｽﾞ日本橋時の鐘通り</t>
-        </is>
-      </c>
-      <c r="B257" s="34" t="inlineStr">
-        <is>
-          <t>P01251</t>
-        </is>
-      </c>
-      <c r="C257" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A257" s="33" t="n"/>
+      <c r="B257" s="34" t="n"/>
+      <c r="C257" s="34" t="n"/>
       <c r="E257" s="31" t="n"/>
       <c r="F257" s="32" t="n"/>
       <c r="G257" s="32" t="n"/>
@@ -21154,21 +20170,9 @@
       <c r="AD257" s="32" t="n"/>
     </row>
     <row r="258" ht="15.75" customHeight="1" s="24">
-      <c r="A258" s="33" t="inlineStr">
-        <is>
-          <t>ｸﾞﾗﾝﾊﾞｰｽ多摩川萩中公園</t>
-        </is>
-      </c>
-      <c r="B258" s="34" t="inlineStr">
-        <is>
-          <t>P01119</t>
-        </is>
-      </c>
-      <c r="C258" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A258" s="33" t="n"/>
+      <c r="B258" s="34" t="n"/>
+      <c r="C258" s="34" t="n"/>
       <c r="E258" s="31" t="n"/>
       <c r="F258" s="32" t="n"/>
       <c r="G258" s="32" t="n"/>
@@ -21197,21 +20201,9 @@
       <c r="AD258" s="32" t="n"/>
     </row>
     <row r="259" ht="15.75" customHeight="1" s="24">
-      <c r="A259" s="36" t="inlineStr">
-        <is>
-          <t>L･city清澄白河</t>
-        </is>
-      </c>
-      <c r="B259" s="34" t="inlineStr">
-        <is>
-          <t>P01101</t>
-        </is>
-      </c>
-      <c r="C259" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A259" s="36" t="n"/>
+      <c r="B259" s="34" t="n"/>
+      <c r="C259" s="34" t="n"/>
       <c r="E259" s="31" t="n"/>
       <c r="F259" s="32" t="n"/>
       <c r="G259" s="32" t="n"/>
@@ -21240,21 +20232,9 @@
       <c r="AD259" s="32" t="n"/>
     </row>
     <row r="260" ht="15.75" customHeight="1" s="24">
-      <c r="A260" s="33" t="inlineStr">
-        <is>
-          <t>ﾌｨｰﾙT幡ヶ谷</t>
-        </is>
-      </c>
-      <c r="B260" s="34" t="inlineStr">
-        <is>
-          <t>P01145</t>
-        </is>
-      </c>
-      <c r="C260" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A260" s="33" t="n"/>
+      <c r="B260" s="34" t="n"/>
+      <c r="C260" s="34" t="n"/>
       <c r="E260" s="31" t="n"/>
       <c r="F260" s="32" t="n"/>
       <c r="G260" s="32" t="n"/>
@@ -21283,21 +20263,9 @@
       <c r="AD260" s="32" t="n"/>
     </row>
     <row r="261" ht="15.75" customHeight="1" s="24">
-      <c r="A261" s="33" t="inlineStr">
-        <is>
-          <t>ﾃﾞｨｱﾅｺｰﾄ八雲桜樹</t>
-        </is>
-      </c>
-      <c r="B261" s="34" t="inlineStr">
-        <is>
-          <t>P01131</t>
-        </is>
-      </c>
-      <c r="C261" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A261" s="33" t="n"/>
+      <c r="B261" s="34" t="n"/>
+      <c r="C261" s="34" t="n"/>
       <c r="E261" s="31" t="n"/>
       <c r="F261" s="32" t="n"/>
       <c r="G261" s="32" t="n"/>
@@ -21326,21 +20294,9 @@
       <c r="AD261" s="32" t="n"/>
     </row>
     <row r="262" ht="15.75" customHeight="1" s="24">
-      <c r="A262" s="33" t="inlineStr">
-        <is>
-          <t>ｴｺｰﾋﾟｱ</t>
-        </is>
-      </c>
-      <c r="B262" s="34" t="inlineStr">
-        <is>
-          <t>P01112</t>
-        </is>
-      </c>
-      <c r="C262" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A262" s="33" t="n"/>
+      <c r="B262" s="34" t="n"/>
+      <c r="C262" s="34" t="n"/>
       <c r="E262" s="31" t="n"/>
       <c r="F262" s="32" t="n"/>
       <c r="G262" s="32" t="n"/>
@@ -21369,21 +20325,9 @@
       <c r="AD262" s="32" t="n"/>
     </row>
     <row r="263" ht="15.75" customHeight="1" s="24">
-      <c r="A263" s="33" t="inlineStr">
-        <is>
-          <t>ｸﾗﾙﾃ武蔵野</t>
-        </is>
-      </c>
-      <c r="B263" s="34" t="inlineStr">
-        <is>
-          <t>P01115</t>
-        </is>
-      </c>
-      <c r="C263" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A263" s="33" t="n"/>
+      <c r="B263" s="34" t="n"/>
+      <c r="C263" s="34" t="n"/>
       <c r="E263" s="31" t="n"/>
       <c r="F263" s="32" t="n"/>
       <c r="G263" s="32" t="n"/>
@@ -21412,21 +20356,9 @@
       <c r="AD263" s="32" t="n"/>
     </row>
     <row r="264" ht="15.75" customHeight="1" s="24">
-      <c r="A264" s="33" t="inlineStr">
-        <is>
-          <t>ｱﾙﾋﾞｵ･ｻﾞ･ﾀﾜｰ千代田飯田橋</t>
-        </is>
-      </c>
-      <c r="B264" s="34" t="inlineStr">
-        <is>
-          <t>P01243</t>
-        </is>
-      </c>
-      <c r="C264" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A264" s="33" t="n"/>
+      <c r="B264" s="34" t="n"/>
+      <c r="C264" s="34" t="n"/>
       <c r="E264" s="31" t="n"/>
       <c r="F264" s="32" t="n"/>
       <c r="G264" s="32" t="n"/>
@@ -21455,21 +20387,9 @@
       <c r="AD264" s="32" t="n"/>
     </row>
     <row r="265" ht="15.75" customHeight="1" s="24">
-      <c r="A265" s="33" t="inlineStr">
-        <is>
-          <t>ｸﾚｯｾﾝﾄ横浜ｼｰｻｲﾄﾞ</t>
-        </is>
-      </c>
-      <c r="B265" s="34" t="inlineStr">
-        <is>
-          <t>P01505</t>
-        </is>
-      </c>
-      <c r="C265" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A265" s="33" t="n"/>
+      <c r="B265" s="34" t="n"/>
+      <c r="C265" s="34" t="n"/>
       <c r="E265" s="31" t="n"/>
       <c r="F265" s="32" t="n"/>
       <c r="G265" s="32" t="n"/>
@@ -21498,21 +20418,9 @@
       <c r="AD265" s="32" t="n"/>
     </row>
     <row r="266" ht="15.75" customHeight="1" s="24">
-      <c r="A266" s="33" t="inlineStr">
-        <is>
-          <t>ﾌｪｱﾛｰｼﾞｭ渕野辺</t>
-        </is>
-      </c>
-      <c r="B266" s="34" t="inlineStr">
-        <is>
-          <t>P01511</t>
-        </is>
-      </c>
-      <c r="C266" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A266" s="33" t="n"/>
+      <c r="B266" s="34" t="n"/>
+      <c r="C266" s="34" t="n"/>
       <c r="E266" s="31" t="n"/>
       <c r="F266" s="32" t="n"/>
       <c r="G266" s="32" t="n"/>
@@ -21541,21 +20449,9 @@
       <c r="AD266" s="32" t="n"/>
     </row>
     <row r="267" ht="15.75" customHeight="1" s="24">
-      <c r="A267" s="33" t="inlineStr">
-        <is>
-          <t>南大沢ﾊﾟｰｸﾋﾙｽﾞ</t>
-        </is>
-      </c>
-      <c r="B267" s="34" t="inlineStr">
-        <is>
-          <t>P01201</t>
-        </is>
-      </c>
-      <c r="C267" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A267" s="33" t="n"/>
+      <c r="B267" s="34" t="n"/>
+      <c r="C267" s="34" t="n"/>
       <c r="E267" s="31" t="n"/>
       <c r="F267" s="32" t="n"/>
       <c r="G267" s="32" t="n"/>
@@ -21584,21 +20480,9 @@
       <c r="AD267" s="32" t="n"/>
     </row>
     <row r="268" ht="15.75" customHeight="1" s="24">
-      <c r="A268" s="33" t="inlineStr">
-        <is>
-          <t>ﾊﾟｰｸﾀﾜｰ豊洲</t>
-        </is>
-      </c>
-      <c r="B268" s="34" t="inlineStr">
-        <is>
-          <t>P01138</t>
-        </is>
-      </c>
-      <c r="C268" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A268" s="33" t="n"/>
+      <c r="B268" s="34" t="n"/>
+      <c r="C268" s="34" t="n"/>
       <c r="E268" s="31" t="n"/>
       <c r="F268" s="32" t="n"/>
       <c r="G268" s="32" t="n"/>
@@ -21627,21 +20511,9 @@
       <c r="AD268" s="32" t="n"/>
     </row>
     <row r="269" ht="15.75" customHeight="1" s="24">
-      <c r="A269" s="33" t="inlineStr">
-        <is>
-          <t>ﾌﾞﾗﾝｼｰﾙ戸越公園</t>
-        </is>
-      </c>
-      <c r="B269" s="34" t="inlineStr">
-        <is>
-          <t>P01154</t>
-        </is>
-      </c>
-      <c r="C269" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A269" s="33" t="n"/>
+      <c r="B269" s="34" t="n"/>
+      <c r="C269" s="34" t="n"/>
       <c r="E269" s="31" t="n"/>
       <c r="F269" s="32" t="n"/>
       <c r="G269" s="32" t="n"/>
@@ -21670,21 +20542,9 @@
       <c r="AD269" s="32" t="n"/>
     </row>
     <row r="270" ht="15.75" customHeight="1" s="24">
-      <c r="A270" s="33" t="inlineStr">
-        <is>
-          <t>ﾌﾛｰﾚﾙ北烏山</t>
-        </is>
-      </c>
-      <c r="B270" s="34" t="inlineStr">
-        <is>
-          <t>P01206</t>
-        </is>
-      </c>
-      <c r="C270" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A270" s="33" t="n"/>
+      <c r="B270" s="34" t="n"/>
+      <c r="C270" s="34" t="n"/>
       <c r="E270" s="31" t="n"/>
       <c r="F270" s="32" t="n"/>
       <c r="G270" s="32" t="n"/>
@@ -21713,21 +20573,9 @@
       <c r="AD270" s="32" t="n"/>
     </row>
     <row r="271" ht="15.75" customHeight="1" s="24">
-      <c r="A271" s="33" t="inlineStr">
-        <is>
-          <t>ｸﾚｯｾﾝﾄ高津ﾚｼﾞﾃﾞﾝｽ</t>
-        </is>
-      </c>
-      <c r="B271" s="34" t="inlineStr">
-        <is>
-          <t>P01507</t>
-        </is>
-      </c>
-      <c r="C271" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A271" s="33" t="n"/>
+      <c r="B271" s="34" t="n"/>
+      <c r="C271" s="34" t="n"/>
       <c r="E271" s="31" t="n"/>
       <c r="F271" s="32" t="n"/>
       <c r="G271" s="32" t="n"/>
@@ -21756,21 +20604,9 @@
       <c r="AD271" s="32" t="n"/>
     </row>
     <row r="272" ht="15.75" customHeight="1" s="24">
-      <c r="A272" s="33" t="inlineStr">
-        <is>
-          <t>ｸﾚｯｾﾝﾄ高津</t>
-        </is>
-      </c>
-      <c r="B272" s="34" t="inlineStr">
-        <is>
-          <t>P01506</t>
-        </is>
-      </c>
-      <c r="C272" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A272" s="33" t="n"/>
+      <c r="B272" s="34" t="n"/>
+      <c r="C272" s="34" t="n"/>
       <c r="E272" s="31" t="n"/>
       <c r="F272" s="32" t="n"/>
       <c r="G272" s="32" t="n"/>
@@ -21799,21 +20635,9 @@
       <c r="AD272" s="32" t="n"/>
     </row>
     <row r="273" ht="15.75" customHeight="1" s="24">
-      <c r="A273" s="36" t="inlineStr">
-        <is>
-          <t>It's東京ﾌｫｰｻｲﾄｽｸｴｱ</t>
-        </is>
-      </c>
-      <c r="B273" s="34" t="inlineStr">
-        <is>
-          <t>P01238</t>
-        </is>
-      </c>
-      <c r="C273" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A273" s="36" t="n"/>
+      <c r="B273" s="34" t="n"/>
+      <c r="C273" s="34" t="n"/>
       <c r="E273" s="31" t="n"/>
       <c r="F273" s="32" t="n"/>
       <c r="G273" s="32" t="n"/>
@@ -21842,21 +20666,9 @@
       <c r="AD273" s="32" t="n"/>
     </row>
     <row r="274" ht="15.75" customHeight="1" s="24">
-      <c r="A274" s="33" t="inlineStr">
-        <is>
-          <t>ﾘﾋﾞｵ北品川</t>
-        </is>
-      </c>
-      <c r="B274" s="34" t="inlineStr">
-        <is>
-          <t>P01179</t>
-        </is>
-      </c>
-      <c r="C274" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A274" s="33" t="n"/>
+      <c r="B274" s="34" t="n"/>
+      <c r="C274" s="34" t="n"/>
       <c r="E274" s="31" t="n"/>
       <c r="F274" s="32" t="n"/>
       <c r="G274" s="32" t="n"/>
@@ -21885,21 +20697,9 @@
       <c r="AD274" s="32" t="n"/>
     </row>
     <row r="275" ht="15.75" customHeight="1" s="24">
-      <c r="A275" s="33" t="inlineStr">
-        <is>
-          <t>ﾌﾗｯﾄ曙町89</t>
-        </is>
-      </c>
-      <c r="B275" s="34" t="inlineStr">
-        <is>
-          <t>P01152</t>
-        </is>
-      </c>
-      <c r="C275" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A275" s="33" t="n"/>
+      <c r="B275" s="34" t="n"/>
+      <c r="C275" s="34" t="n"/>
       <c r="E275" s="31" t="n"/>
       <c r="F275" s="32" t="n"/>
       <c r="G275" s="32" t="n"/>
@@ -21928,21 +20728,9 @@
       <c r="AD275" s="32" t="n"/>
     </row>
     <row r="276" ht="15.75" customHeight="1" s="24">
-      <c r="A276" s="36" t="inlineStr">
-        <is>
-          <t>GRAN PASEO本駒込</t>
-        </is>
-      </c>
-      <c r="B276" s="34" t="inlineStr">
-        <is>
-          <t>P01223</t>
-        </is>
-      </c>
-      <c r="C276" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A276" s="36" t="n"/>
+      <c r="B276" s="34" t="n"/>
+      <c r="C276" s="34" t="n"/>
       <c r="E276" s="31" t="n"/>
       <c r="F276" s="32" t="n"/>
       <c r="G276" s="32" t="n"/>
@@ -21971,21 +20759,9 @@
       <c r="AD276" s="32" t="n"/>
     </row>
     <row r="277" ht="15.75" customHeight="1" s="24">
-      <c r="A277" s="33" t="inlineStr">
-        <is>
-          <t>ｼﾞｪｲｼﾃｨ初台</t>
-        </is>
-      </c>
-      <c r="B277" s="34" t="inlineStr">
-        <is>
-          <t>P01127</t>
-        </is>
-      </c>
-      <c r="C277" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A277" s="33" t="n"/>
+      <c r="B277" s="34" t="n"/>
+      <c r="C277" s="34" t="n"/>
       <c r="E277" s="31" t="n"/>
       <c r="F277" s="32" t="n"/>
       <c r="G277" s="32" t="n"/>
@@ -22014,21 +20790,9 @@
       <c r="AD277" s="32" t="n"/>
     </row>
     <row r="278" ht="15.75" customHeight="1" s="24">
-      <c r="A278" s="33" t="inlineStr">
-        <is>
-          <t>ﾊﾟｰｸﾀﾜｰ渋谷本町</t>
-        </is>
-      </c>
-      <c r="B278" s="34" t="inlineStr">
-        <is>
-          <t>P01135</t>
-        </is>
-      </c>
-      <c r="C278" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A278" s="33" t="n"/>
+      <c r="B278" s="34" t="n"/>
+      <c r="C278" s="34" t="n"/>
       <c r="E278" s="31" t="n"/>
       <c r="F278" s="32" t="n"/>
       <c r="G278" s="32" t="n"/>
@@ -22057,21 +20821,9 @@
       <c r="AD278" s="32" t="n"/>
     </row>
     <row r="279" ht="15.75" customHeight="1" s="24">
-      <c r="A279" s="33" t="inlineStr">
-        <is>
-          <t>ﾒﾙﾛｰｽﾞｽｸｴｱ武蔵小金井</t>
-        </is>
-      </c>
-      <c r="B279" s="34" t="inlineStr">
-        <is>
-          <t>P01161</t>
-        </is>
-      </c>
-      <c r="C279" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A279" s="33" t="n"/>
+      <c r="B279" s="34" t="n"/>
+      <c r="C279" s="34" t="n"/>
       <c r="E279" s="31" t="n"/>
       <c r="F279" s="32" t="n"/>
       <c r="G279" s="32" t="n"/>
@@ -22100,21 +20852,9 @@
       <c r="AD279" s="32" t="n"/>
     </row>
     <row r="280" ht="15.75" customHeight="1" s="24">
-      <c r="A280" s="33" t="inlineStr">
-        <is>
-          <t>ｽｶｲｽｸｴｱ川口</t>
-        </is>
-      </c>
-      <c r="B280" s="34" t="inlineStr">
-        <is>
-          <t>P01903</t>
-        </is>
-      </c>
-      <c r="C280" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A280" s="33" t="n"/>
+      <c r="B280" s="34" t="n"/>
+      <c r="C280" s="34" t="n"/>
       <c r="E280" s="31" t="n"/>
       <c r="F280" s="32" t="n"/>
       <c r="G280" s="32" t="n"/>
@@ -22143,21 +20883,9 @@
       <c r="AD280" s="32" t="n"/>
     </row>
     <row r="281" ht="15.75" customHeight="1" s="24">
-      <c r="A281" s="33" t="inlineStr">
-        <is>
-          <t>ｸﾞﾗﾝﾘﾋﾞｵﾏｰｸｽﾋﾙ</t>
-        </is>
-      </c>
-      <c r="B281" s="34" t="inlineStr">
-        <is>
-          <t>P01120</t>
-        </is>
-      </c>
-      <c r="C281" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A281" s="33" t="n"/>
+      <c r="B281" s="34" t="n"/>
+      <c r="C281" s="34" t="n"/>
       <c r="E281" s="31" t="n"/>
       <c r="F281" s="32" t="n"/>
       <c r="G281" s="32" t="n"/>
@@ -22186,21 +20914,9 @@
       <c r="AD281" s="32" t="n"/>
     </row>
     <row r="282" ht="15.75" customHeight="1" s="24">
-      <c r="A282" s="33" t="inlineStr">
-        <is>
-          <t>ﾘﾋﾞｵ海浜幕張ﾗｳﾞｨｱﾝｺｰﾄ</t>
-        </is>
-      </c>
-      <c r="B282" s="34" t="inlineStr">
-        <is>
-          <t>P01720</t>
-        </is>
-      </c>
-      <c r="C282" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A282" s="33" t="n"/>
+      <c r="B282" s="34" t="n"/>
+      <c r="C282" s="34" t="n"/>
       <c r="E282" s="31" t="n"/>
       <c r="F282" s="32" t="n"/>
       <c r="G282" s="32" t="n"/>
@@ -22229,21 +20945,9 @@
       <c r="AD282" s="32" t="n"/>
     </row>
     <row r="283" ht="15.75" customHeight="1" s="24">
-      <c r="A283" s="33" t="inlineStr">
-        <is>
-          <t>ｻﾝﾄｺｱ幕張本郷</t>
-        </is>
-      </c>
-      <c r="B283" s="34" t="inlineStr">
-        <is>
-          <t>P01711</t>
-        </is>
-      </c>
-      <c r="C283" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A283" s="33" t="n"/>
+      <c r="B283" s="34" t="n"/>
+      <c r="C283" s="34" t="n"/>
       <c r="E283" s="31" t="n"/>
       <c r="F283" s="32" t="n"/>
       <c r="G283" s="32" t="n"/>
@@ -22272,21 +20976,9 @@
       <c r="AD283" s="32" t="n"/>
     </row>
     <row r="284" ht="15.75" customHeight="1" s="24">
-      <c r="A284" s="33" t="inlineStr">
-        <is>
-          <t>ｱｸｱｺｰﾄ</t>
-        </is>
-      </c>
-      <c r="B284" s="34" t="inlineStr">
-        <is>
-          <t>P01105</t>
-        </is>
-      </c>
-      <c r="C284" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A284" s="33" t="n"/>
+      <c r="B284" s="34" t="n"/>
+      <c r="C284" s="34" t="n"/>
       <c r="E284" s="31" t="n"/>
       <c r="F284" s="32" t="n"/>
       <c r="G284" s="32" t="n"/>
@@ -22315,21 +21007,9 @@
       <c r="AD284" s="32" t="n"/>
     </row>
     <row r="285" ht="15.75" customHeight="1" s="24">
-      <c r="A285" s="33" t="inlineStr">
-        <is>
-          <t>ｳｪﾘｽ南流山</t>
-        </is>
-      </c>
-      <c r="B285" s="34" t="inlineStr">
-        <is>
-          <t>P01703</t>
-        </is>
-      </c>
-      <c r="C285" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A285" s="33" t="n"/>
+      <c r="B285" s="34" t="n"/>
+      <c r="C285" s="34" t="n"/>
       <c r="E285" s="31" t="n"/>
       <c r="F285" s="32" t="n"/>
       <c r="G285" s="32" t="n"/>
@@ -22358,21 +21038,9 @@
       <c r="AD285" s="32" t="n"/>
     </row>
     <row r="286" ht="15.75" customHeight="1" s="24">
-      <c r="A286" s="33" t="inlineStr">
-        <is>
-          <t>ﾘﾋﾞｵ目白ｸﾞﾚｲｽﾋﾙｽﾞ</t>
-        </is>
-      </c>
-      <c r="B286" s="34" t="inlineStr">
-        <is>
-          <t>P01180</t>
-        </is>
-      </c>
-      <c r="C286" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A286" s="33" t="n"/>
+      <c r="B286" s="34" t="n"/>
+      <c r="C286" s="34" t="n"/>
       <c r="E286" s="31" t="n"/>
       <c r="F286" s="32" t="n"/>
       <c r="G286" s="32" t="n"/>
@@ -22401,21 +21069,9 @@
       <c r="AD286" s="32" t="n"/>
     </row>
     <row r="287" ht="15.75" customHeight="1" s="24">
-      <c r="A287" s="33" t="inlineStr">
-        <is>
-          <t>ﾌｪｱﾛｰｼﾞｭ目白台一丁目静凛館</t>
-        </is>
-      </c>
-      <c r="B287" s="34" t="inlineStr">
-        <is>
-          <t>P01150</t>
-        </is>
-      </c>
-      <c r="C287" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A287" s="33" t="n"/>
+      <c r="B287" s="34" t="n"/>
+      <c r="C287" s="34" t="n"/>
       <c r="E287" s="31" t="n"/>
       <c r="F287" s="32" t="n"/>
       <c r="G287" s="32" t="n"/>
@@ -22444,21 +21100,9 @@
       <c r="AD287" s="32" t="n"/>
     </row>
     <row r="288" ht="15.75" customHeight="1" s="24">
-      <c r="A288" s="33" t="inlineStr">
-        <is>
-          <t>日鉄ｽﾃﾝﾚｽ鋼管(株)和光寮</t>
-        </is>
-      </c>
-      <c r="B288" s="34" t="inlineStr">
-        <is>
-          <t>P01528</t>
-        </is>
-      </c>
-      <c r="C288" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A288" s="33" t="n"/>
+      <c r="B288" s="34" t="n"/>
+      <c r="C288" s="34" t="n"/>
       <c r="E288" s="31" t="n"/>
       <c r="F288" s="32" t="n"/>
       <c r="G288" s="32" t="n"/>
@@ -22487,21 +21131,9 @@
       <c r="AD288" s="32" t="n"/>
     </row>
     <row r="289" ht="15.75" customHeight="1" s="24">
-      <c r="A289" s="33" t="inlineStr">
-        <is>
-          <t>ﾊｰﾄﾌｨｰﾙｽﾞ薬園台ﾊｲﾗｲｽﾞ</t>
-        </is>
-      </c>
-      <c r="B289" s="34" t="inlineStr">
-        <is>
-          <t>P01716</t>
-        </is>
-      </c>
-      <c r="C289" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A289" s="33" t="n"/>
+      <c r="B289" s="34" t="n"/>
+      <c r="C289" s="34" t="n"/>
       <c r="E289" s="31" t="n"/>
       <c r="F289" s="32" t="n"/>
       <c r="G289" s="32" t="n"/>
@@ -22530,21 +21162,9 @@
       <c r="AD289" s="32" t="n"/>
     </row>
     <row r="290" ht="15.75" customHeight="1" s="24">
-      <c r="A290" s="36" t="inlineStr">
-        <is>
-          <t>CASSIA八千代緑が丘</t>
-        </is>
-      </c>
-      <c r="B290" s="34" t="inlineStr">
-        <is>
-          <t>P01705</t>
-        </is>
-      </c>
-      <c r="C290" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A290" s="36" t="n"/>
+      <c r="B290" s="34" t="n"/>
+      <c r="C290" s="34" t="n"/>
       <c r="E290" s="31" t="n"/>
       <c r="F290" s="32" t="n"/>
       <c r="G290" s="32" t="n"/>
@@ -22573,21 +21193,9 @@
       <c r="AD290" s="32" t="n"/>
     </row>
     <row r="291" ht="15.75" customHeight="1" s="24">
-      <c r="A291" s="33" t="inlineStr">
-        <is>
-          <t>ｶﾞｰﾃﾞﾆｴｰﾙ砧ﾚｼﾞﾃﾞﾝｽ</t>
-        </is>
-      </c>
-      <c r="B291" s="34" t="inlineStr">
-        <is>
-          <t>P01224</t>
-        </is>
-      </c>
-      <c r="C291" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A291" s="33" t="n"/>
+      <c r="B291" s="34" t="n"/>
+      <c r="C291" s="34" t="n"/>
       <c r="E291" s="31" t="n"/>
       <c r="F291" s="32" t="n"/>
       <c r="G291" s="32" t="n"/>
@@ -22616,21 +21224,9 @@
       <c r="AD291" s="32" t="n"/>
     </row>
     <row r="292" ht="15.75" customHeight="1" s="24">
-      <c r="A292" s="33" t="inlineStr">
-        <is>
-          <t>ｴｸｾﾙﾀﾞｲﾔ東大井</t>
-        </is>
-      </c>
-      <c r="B292" s="34" t="inlineStr">
-        <is>
-          <t>P01111</t>
-        </is>
-      </c>
-      <c r="C292" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A292" s="33" t="n"/>
+      <c r="B292" s="34" t="n"/>
+      <c r="C292" s="34" t="n"/>
       <c r="E292" s="31" t="n"/>
       <c r="F292" s="32" t="n"/>
       <c r="G292" s="32" t="n"/>
@@ -22659,21 +21255,9 @@
       <c r="AD292" s="32" t="n"/>
     </row>
     <row r="293" ht="15.75" customHeight="1" s="24">
-      <c r="A293" s="33" t="inlineStr">
-        <is>
-          <t>ｻﾞ･ﾊﾟｰｸﾊﾋﾞｵ亀戸</t>
-        </is>
-      </c>
-      <c r="B293" s="34" t="inlineStr">
-        <is>
-          <t>P01257</t>
-        </is>
-      </c>
-      <c r="C293" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A293" s="33" t="n"/>
+      <c r="B293" s="34" t="n"/>
+      <c r="C293" s="34" t="n"/>
       <c r="E293" s="31" t="n"/>
       <c r="F293" s="32" t="n"/>
       <c r="G293" s="32" t="n"/>
@@ -22702,21 +21286,9 @@
       <c r="AD293" s="32" t="n"/>
     </row>
     <row r="294" ht="15.75" customHeight="1" s="24">
-      <c r="A294" s="33" t="inlineStr">
-        <is>
-          <t>ﾄｰｱ久が原ｶﾞｰﾃﾞﾝ</t>
-        </is>
-      </c>
-      <c r="B294" s="34" t="inlineStr">
-        <is>
-          <t>P01260</t>
-        </is>
-      </c>
-      <c r="C294" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A294" s="33" t="n"/>
+      <c r="B294" s="34" t="n"/>
+      <c r="C294" s="34" t="n"/>
       <c r="E294" s="31" t="n"/>
       <c r="F294" s="32" t="n"/>
       <c r="G294" s="32" t="n"/>
@@ -22745,21 +21317,9 @@
       <c r="AD294" s="32" t="n"/>
     </row>
     <row r="295" ht="15.75" customHeight="1" s="24">
-      <c r="A295" s="33" t="inlineStr">
-        <is>
-          <t>ｴｸｾﾙ ｴﾇ･ｹｰ</t>
-        </is>
-      </c>
-      <c r="B295" s="34" t="inlineStr">
-        <is>
-          <t>P01110</t>
-        </is>
-      </c>
-      <c r="C295" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A295" s="33" t="n"/>
+      <c r="B295" s="34" t="n"/>
+      <c r="C295" s="34" t="n"/>
       <c r="E295" s="31" t="n"/>
       <c r="F295" s="32" t="n"/>
       <c r="G295" s="32" t="n"/>
@@ -22788,21 +21348,9 @@
       <c r="AD295" s="32" t="n"/>
     </row>
     <row r="296" ht="15.75" customHeight="1" s="24">
-      <c r="A296" s="33" t="inlineStr">
-        <is>
-          <t>ﾄﾏｽ本八幡</t>
-        </is>
-      </c>
-      <c r="B296" s="34" t="inlineStr">
-        <is>
-          <t>P01723</t>
-        </is>
-      </c>
-      <c r="C296" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A296" s="33" t="n"/>
+      <c r="B296" s="34" t="n"/>
+      <c r="C296" s="34" t="n"/>
       <c r="E296" s="31" t="n"/>
       <c r="F296" s="32" t="n"/>
       <c r="G296" s="32" t="n"/>
@@ -22831,21 +21379,9 @@
       <c r="AD296" s="32" t="n"/>
     </row>
     <row r="297" ht="15.75" customHeight="1" s="24">
-      <c r="A297" s="33" t="inlineStr">
-        <is>
-          <t>ﾊﾟｰｸﾘｭｸｽ日本橋箱崎町mono</t>
-        </is>
-      </c>
-      <c r="B297" s="34" t="inlineStr">
-        <is>
-          <t>P01236</t>
-        </is>
-      </c>
-      <c r="C297" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A297" s="33" t="n"/>
+      <c r="B297" s="34" t="n"/>
+      <c r="C297" s="34" t="n"/>
       <c r="E297" s="31" t="n"/>
       <c r="F297" s="32" t="n"/>
       <c r="G297" s="32" t="n"/>
@@ -22874,21 +21410,9 @@
       <c r="AD297" s="32" t="n"/>
     </row>
     <row r="298" ht="15.75" customHeight="1" s="24">
-      <c r="A298" s="33" t="inlineStr">
-        <is>
-          <t>ﾊﾟｰｸﾎｰﾑｽﾞ日本橋本町</t>
-        </is>
-      </c>
-      <c r="B298" s="34" t="inlineStr">
-        <is>
-          <t>P01249</t>
-        </is>
-      </c>
-      <c r="C298" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A298" s="33" t="n"/>
+      <c r="B298" s="34" t="n"/>
+      <c r="C298" s="34" t="n"/>
       <c r="E298" s="31" t="n"/>
       <c r="F298" s="32" t="n"/>
       <c r="G298" s="32" t="n"/>
@@ -22917,21 +21441,9 @@
       <c r="AD298" s="32" t="n"/>
     </row>
     <row r="299" ht="15.75" customHeight="1" s="24">
-      <c r="A299" s="33" t="inlineStr">
-        <is>
-          <t>ﾙｼﾞｪﾝﾃ練馬豊島園</t>
-        </is>
-      </c>
-      <c r="B299" s="34" t="inlineStr">
-        <is>
-          <t>P01231</t>
-        </is>
-      </c>
-      <c r="C299" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A299" s="33" t="n"/>
+      <c r="B299" s="34" t="n"/>
+      <c r="C299" s="34" t="n"/>
       <c r="E299" s="31" t="n"/>
       <c r="F299" s="32" t="n"/>
       <c r="G299" s="32" t="n"/>
@@ -22960,21 +21472,9 @@
       <c r="AD299" s="32" t="n"/>
     </row>
     <row r="300" ht="15.75" customHeight="1" s="24">
-      <c r="A300" s="33" t="inlineStr">
-        <is>
-          <t>ｸﾞﾗﾝﾄﾞﾒｿﾞﾝ目黒南</t>
-        </is>
-      </c>
-      <c r="B300" s="34" t="inlineStr">
-        <is>
-          <t>P01267</t>
-        </is>
-      </c>
-      <c r="C300" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A300" s="33" t="n"/>
+      <c r="B300" s="34" t="n"/>
+      <c r="C300" s="34" t="n"/>
       <c r="E300" s="31" t="n"/>
       <c r="F300" s="32" t="n"/>
       <c r="G300" s="32" t="n"/>
@@ -23003,21 +21503,9 @@
       <c r="AD300" s="32" t="n"/>
     </row>
     <row r="301" ht="15.75" customHeight="1" s="24">
-      <c r="A301" s="33" t="inlineStr">
-        <is>
-          <t>芝浦ｱｲﾗﾝﾄﾞｹｰﾌﾟﾀﾜｰ</t>
-        </is>
-      </c>
-      <c r="B301" s="34" t="inlineStr">
-        <is>
-          <t>P01264</t>
-        </is>
-      </c>
-      <c r="C301" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A301" s="33" t="n"/>
+      <c r="B301" s="34" t="n"/>
+      <c r="C301" s="34" t="n"/>
       <c r="E301" s="31" t="n"/>
       <c r="F301" s="32" t="n"/>
       <c r="G301" s="32" t="n"/>
@@ -23046,21 +21534,9 @@
       <c r="AD301" s="32" t="n"/>
     </row>
     <row r="302" ht="15.75" customHeight="1" s="24">
-      <c r="A302" s="33" t="inlineStr">
-        <is>
-          <t>東京ﾚｼﾞﾃﾞﾝｽ</t>
-        </is>
-      </c>
-      <c r="B302" s="34" t="inlineStr">
-        <is>
-          <t>P01263</t>
-        </is>
-      </c>
-      <c r="C302" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A302" s="33" t="n"/>
+      <c r="B302" s="34" t="n"/>
+      <c r="C302" s="34" t="n"/>
       <c r="E302" s="31" t="n"/>
       <c r="F302" s="32" t="n"/>
       <c r="G302" s="32" t="n"/>
@@ -23089,21 +21565,9 @@
       <c r="AD302" s="32" t="n"/>
     </row>
     <row r="303" ht="15.75" customHeight="1" s="24">
-      <c r="A303" s="33" t="inlineStr">
-        <is>
-          <t>ﾙｼﾞｪﾝﾃ碑文谷</t>
-        </is>
-      </c>
-      <c r="B303" s="34" t="inlineStr">
-        <is>
-          <t>P01183</t>
-        </is>
-      </c>
-      <c r="C303" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A303" s="33" t="n"/>
+      <c r="B303" s="34" t="n"/>
+      <c r="C303" s="34" t="n"/>
       <c r="E303" s="31" t="n"/>
       <c r="F303" s="32" t="n"/>
       <c r="G303" s="32" t="n"/>
@@ -23132,21 +21596,9 @@
       <c r="AD303" s="32" t="n"/>
     </row>
     <row r="304" ht="15.75" customHeight="1" s="24">
-      <c r="A304" s="33" t="inlineStr">
-        <is>
-          <t>ﾋﾟｱｰｽ赤坂</t>
-        </is>
-      </c>
-      <c r="B304" s="34" t="inlineStr">
-        <is>
-          <t>P01221</t>
-        </is>
-      </c>
-      <c r="C304" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A304" s="33" t="n"/>
+      <c r="B304" s="34" t="n"/>
+      <c r="C304" s="34" t="n"/>
       <c r="E304" s="31" t="n"/>
       <c r="F304" s="32" t="n"/>
       <c r="G304" s="32" t="n"/>
@@ -23175,21 +21627,9 @@
       <c r="AD304" s="32" t="n"/>
     </row>
     <row r="305" ht="15.75" customHeight="1" s="24">
-      <c r="A305" s="33" t="inlineStr">
-        <is>
-          <t>ﾊﾟｰｸﾀﾜｰ東雲</t>
-        </is>
-      </c>
-      <c r="B305" s="34" t="inlineStr">
-        <is>
-          <t>P01137</t>
-        </is>
-      </c>
-      <c r="C305" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A305" s="33" t="n"/>
+      <c r="B305" s="34" t="n"/>
+      <c r="C305" s="34" t="n"/>
       <c r="E305" s="31" t="n"/>
       <c r="F305" s="32" t="n"/>
       <c r="G305" s="32" t="n"/>
@@ -23218,21 +21658,9 @@
       <c r="AD305" s="32" t="n"/>
     </row>
     <row r="306" ht="15.75" customHeight="1" s="24">
-      <c r="A306" s="33" t="inlineStr">
-        <is>
-          <t>ｾﾚﾅｳﾞｨｰﾀ新浦安</t>
-        </is>
-      </c>
-      <c r="B306" s="34" t="inlineStr">
-        <is>
-          <t>P01715</t>
-        </is>
-      </c>
-      <c r="C306" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A306" s="33" t="n"/>
+      <c r="B306" s="34" t="n"/>
+      <c r="C306" s="34" t="n"/>
       <c r="E306" s="31" t="n"/>
       <c r="F306" s="32" t="n"/>
       <c r="G306" s="32" t="n"/>
@@ -23261,21 +21689,9 @@
       <c r="AD306" s="32" t="n"/>
     </row>
     <row r="307" ht="15.75" customHeight="1" s="24">
-      <c r="A307" s="33" t="inlineStr">
-        <is>
-          <t>第一ｸﾘｰﾝｻｰﾋﾞｽ課</t>
-        </is>
-      </c>
-      <c r="B307" s="34" t="inlineStr">
-        <is>
-          <t>P01000</t>
-        </is>
-      </c>
-      <c r="C307" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A307" s="33" t="n"/>
+      <c r="B307" s="34" t="n"/>
+      <c r="C307" s="34" t="n"/>
       <c r="E307" s="31" t="n"/>
       <c r="F307" s="32" t="n"/>
       <c r="G307" s="32" t="n"/>
@@ -23304,21 +21720,9 @@
       <c r="AD307" s="32" t="n"/>
     </row>
     <row r="308" ht="15.75" customHeight="1" s="24">
-      <c r="A308" s="33" t="inlineStr">
-        <is>
-          <t>第一CS 初台事務所</t>
-        </is>
-      </c>
-      <c r="B308" s="34" t="inlineStr">
-        <is>
-          <t>P01001</t>
-        </is>
-      </c>
-      <c r="C308" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A308" s="33" t="n"/>
+      <c r="B308" s="34" t="n"/>
+      <c r="C308" s="34" t="n"/>
       <c r="E308" s="31" t="n"/>
       <c r="F308" s="32" t="n"/>
       <c r="G308" s="32" t="n"/>
@@ -23347,21 +21751,9 @@
       <c r="AD308" s="32" t="n"/>
     </row>
     <row r="309" ht="15.75" customHeight="1" s="24">
-      <c r="A309" s="33" t="inlineStr">
-        <is>
-          <t>ﾘﾋﾞｵﾚｿﾞﾝ八幡山ｽﾃｰｼｮﾝｽｲｰﾄ</t>
-        </is>
-      </c>
-      <c r="B309" s="34" t="inlineStr">
-        <is>
-          <t>P01171</t>
-        </is>
-      </c>
-      <c r="C309" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A309" s="33" t="n"/>
+      <c r="B309" s="34" t="n"/>
+      <c r="C309" s="34" t="n"/>
       <c r="E309" s="31" t="n"/>
       <c r="F309" s="32" t="n"/>
       <c r="G309" s="32" t="n"/>
@@ -23390,21 +21782,9 @@
       <c r="AD309" s="32" t="n"/>
     </row>
     <row r="310" ht="15.75" customHeight="1" s="24">
-      <c r="A310" s="33" t="inlineStr">
-        <is>
-          <t>千葉地区巡回</t>
-        </is>
-      </c>
-      <c r="B310" s="34" t="inlineStr">
-        <is>
-          <t>P01729</t>
-        </is>
-      </c>
-      <c r="C310" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A310" s="33" t="n"/>
+      <c r="B310" s="34" t="n"/>
+      <c r="C310" s="34" t="n"/>
       <c r="E310" s="31" t="n"/>
       <c r="F310" s="32" t="n"/>
       <c r="G310" s="32" t="n"/>
@@ -23433,21 +21813,9 @@
       <c r="AD310" s="32" t="n"/>
     </row>
     <row r="311" ht="15.75" customHeight="1" s="24">
-      <c r="A311" s="33" t="inlineStr">
-        <is>
-          <t>第二ｸﾘｰﾝｻｰﾋﾞｽ課</t>
-        </is>
-      </c>
-      <c r="B311" s="34" t="inlineStr">
-        <is>
-          <t>P02000</t>
-        </is>
-      </c>
-      <c r="C311" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A311" s="33" t="n"/>
+      <c r="B311" s="34" t="n"/>
+      <c r="C311" s="34" t="n"/>
       <c r="E311" s="31" t="n"/>
       <c r="F311" s="32" t="n"/>
       <c r="G311" s="32" t="n"/>
@@ -23476,21 +21844,9 @@
       <c r="AD311" s="32" t="n"/>
     </row>
     <row r="312" ht="15.75" customHeight="1" s="24">
-      <c r="A312" s="33" t="inlineStr">
-        <is>
-          <t>第二CS 初台事務所</t>
-        </is>
-      </c>
-      <c r="B312" s="34" t="inlineStr">
-        <is>
-          <t>P02001</t>
-        </is>
-      </c>
-      <c r="C312" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A312" s="33" t="n"/>
+      <c r="B312" s="34" t="n"/>
+      <c r="C312" s="34" t="n"/>
       <c r="E312" s="31" t="n"/>
       <c r="F312" s="32" t="n"/>
       <c r="G312" s="32" t="n"/>
@@ -23519,21 +21875,9 @@
       <c r="AD312" s="32" t="n"/>
     </row>
     <row r="313" ht="15.75" customHeight="1" s="24">
-      <c r="A313" s="33" t="inlineStr">
-        <is>
-          <t>工事課</t>
-        </is>
-      </c>
-      <c r="B313" s="34" t="inlineStr">
-        <is>
-          <t>P03000</t>
-        </is>
-      </c>
-      <c r="C313" s="34" t="inlineStr">
-        <is>
-          <t>③</t>
-        </is>
-      </c>
+      <c r="A313" s="33" t="n"/>
+      <c r="B313" s="34" t="n"/>
+      <c r="C313" s="34" t="n"/>
       <c r="E313" s="31" t="n"/>
       <c r="F313" s="32" t="n"/>
       <c r="G313" s="32" t="n"/>
@@ -23562,21 +21906,9 @@
       <c r="AD313" s="32" t="n"/>
     </row>
     <row r="314" ht="15.75" customHeight="1" s="24">
-      <c r="A314" s="33" t="inlineStr">
-        <is>
-          <t>湘南開発ｾﾝﾀｰ</t>
-        </is>
-      </c>
-      <c r="B314" s="34" t="inlineStr">
-        <is>
-          <t>L02213</t>
-        </is>
-      </c>
-      <c r="C314" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A314" s="33" t="n"/>
+      <c r="B314" s="34" t="n"/>
+      <c r="C314" s="34" t="n"/>
       <c r="E314" s="31" t="n"/>
       <c r="F314" s="32" t="n"/>
       <c r="G314" s="32" t="n"/>
@@ -23605,21 +21937,9 @@
       <c r="AD314" s="32" t="n"/>
     </row>
     <row r="315" ht="15.75" customHeight="1" s="24">
-      <c r="A315" s="33" t="inlineStr">
-        <is>
-          <t>藤沢事業部</t>
-        </is>
-      </c>
-      <c r="B315" s="34" t="inlineStr">
-        <is>
-          <t>L00000</t>
-        </is>
-      </c>
-      <c r="C315" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A315" s="33" t="n"/>
+      <c r="B315" s="34" t="n"/>
+      <c r="C315" s="34" t="n"/>
       <c r="E315" s="31" t="n"/>
       <c r="F315" s="32" t="n"/>
       <c r="G315" s="32" t="n"/>
@@ -23648,21 +21968,9 @@
       <c r="AD315" s="32" t="n"/>
     </row>
     <row r="316" ht="15.75" customHeight="1" s="24">
-      <c r="A316" s="33" t="inlineStr">
-        <is>
-          <t>藤沢 警備防災課</t>
-        </is>
-      </c>
-      <c r="B316" s="34" t="inlineStr">
-        <is>
-          <t>L02100</t>
-        </is>
-      </c>
-      <c r="C316" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A316" s="33" t="n"/>
+      <c r="B316" s="34" t="n"/>
+      <c r="C316" s="34" t="n"/>
       <c r="E316" s="31" t="n"/>
       <c r="F316" s="32" t="n"/>
       <c r="G316" s="32" t="n"/>
@@ -23691,21 +21999,9 @@
       <c r="AD316" s="32" t="n"/>
     </row>
     <row r="317" ht="15.75" customHeight="1" s="24">
-      <c r="A317" s="33" t="inlineStr">
-        <is>
-          <t>藤沢 ｸﾘｰﾝｻｰﾋﾞｽ課</t>
-        </is>
-      </c>
-      <c r="B317" s="34" t="inlineStr">
-        <is>
-          <t>L02200</t>
-        </is>
-      </c>
-      <c r="C317" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A317" s="33" t="n"/>
+      <c r="B317" s="34" t="n"/>
+      <c r="C317" s="34" t="n"/>
       <c r="E317" s="31" t="n"/>
       <c r="F317" s="32" t="n"/>
       <c r="G317" s="32" t="n"/>
@@ -23734,21 +22030,9 @@
       <c r="AD317" s="32" t="n"/>
     </row>
     <row r="318" ht="15.75" customHeight="1" s="24">
-      <c r="A318" s="33" t="inlineStr">
-        <is>
-          <t>藤沢工場･事務棟</t>
-        </is>
-      </c>
-      <c r="B318" s="34" t="inlineStr">
-        <is>
-          <t>L02201</t>
-        </is>
-      </c>
-      <c r="C318" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A318" s="33" t="n"/>
+      <c r="B318" s="34" t="n"/>
+      <c r="C318" s="34" t="n"/>
       <c r="E318" s="31" t="n"/>
       <c r="F318" s="32" t="n"/>
       <c r="G318" s="32" t="n"/>
@@ -23777,21 +22061,9 @@
       <c r="AD318" s="32" t="n"/>
     </row>
     <row r="319" ht="15.75" customHeight="1" s="24">
-      <c r="A319" s="33" t="inlineStr">
-        <is>
-          <t>藤沢工場内清掃</t>
-        </is>
-      </c>
-      <c r="B319" s="34" t="inlineStr">
-        <is>
-          <t>L02202</t>
-        </is>
-      </c>
-      <c r="C319" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A319" s="33" t="n"/>
+      <c r="B319" s="34" t="n"/>
+      <c r="C319" s="34" t="n"/>
       <c r="E319" s="31" t="n"/>
       <c r="F319" s="32" t="n"/>
       <c r="G319" s="32" t="n"/>
@@ -23820,21 +22092,9 @@
       <c r="AD319" s="32" t="n"/>
     </row>
     <row r="320" ht="15.75" customHeight="1" s="24">
-      <c r="A320" s="33" t="inlineStr">
-        <is>
-          <t>ﾒｰﾙ</t>
-        </is>
-      </c>
-      <c r="B320" s="34" t="inlineStr">
-        <is>
-          <t>L02203</t>
-        </is>
-      </c>
-      <c r="C320" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A320" s="33" t="n"/>
+      <c r="B320" s="34" t="n"/>
+      <c r="C320" s="34" t="n"/>
       <c r="E320" s="31" t="n"/>
       <c r="F320" s="32" t="n"/>
       <c r="G320" s="32" t="n"/>
@@ -23863,21 +22123,9 @@
       <c r="AD320" s="32" t="n"/>
     </row>
     <row r="321" ht="15.75" customHeight="1" s="24">
-      <c r="A321" s="33" t="inlineStr">
-        <is>
-          <t>外構清掃</t>
-        </is>
-      </c>
-      <c r="B321" s="34" t="inlineStr">
-        <is>
-          <t>L02212</t>
-        </is>
-      </c>
-      <c r="C321" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A321" s="33" t="n"/>
+      <c r="B321" s="34" t="n"/>
+      <c r="C321" s="34" t="n"/>
       <c r="E321" s="31" t="n"/>
       <c r="F321" s="32" t="n"/>
       <c r="G321" s="32" t="n"/>
@@ -23906,21 +22154,9 @@
       <c r="AD321" s="32" t="n"/>
     </row>
     <row r="322" ht="15.75" customHeight="1" s="24">
-      <c r="A322" s="33" t="inlineStr">
-        <is>
-          <t>開発新事務棟</t>
-        </is>
-      </c>
-      <c r="B322" s="34" t="inlineStr">
-        <is>
-          <t>L02215</t>
-        </is>
-      </c>
-      <c r="C322" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A322" s="33" t="n"/>
+      <c r="B322" s="34" t="n"/>
+      <c r="C322" s="34" t="n"/>
       <c r="E322" s="31" t="n"/>
       <c r="F322" s="32" t="n"/>
       <c r="G322" s="32" t="n"/>
@@ -23949,21 +22185,9 @@
       <c r="AD322" s="32" t="n"/>
     </row>
     <row r="323" ht="15.75" customHeight="1" s="24">
-      <c r="A323" s="33" t="inlineStr">
-        <is>
-          <t>緑化</t>
-        </is>
-      </c>
-      <c r="B323" s="34" t="inlineStr">
-        <is>
-          <t>L02302</t>
-        </is>
-      </c>
-      <c r="C323" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A323" s="33" t="n"/>
+      <c r="B323" s="34" t="n"/>
+      <c r="C323" s="34" t="n"/>
       <c r="E323" s="31" t="n"/>
       <c r="F323" s="32" t="n"/>
       <c r="G323" s="32" t="n"/>
@@ -23992,21 +22216,9 @@
       <c r="AD323" s="32" t="n"/>
     </row>
     <row r="324" ht="15.75" customHeight="1" s="24">
-      <c r="A324" s="33" t="inlineStr">
-        <is>
-          <t>藤沢 ｵｰﾄｻｰﾋﾞｽ課</t>
-        </is>
-      </c>
-      <c r="B324" s="34" t="inlineStr">
-        <is>
-          <t>L02400</t>
-        </is>
-      </c>
-      <c r="C324" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A324" s="33" t="n"/>
+      <c r="B324" s="34" t="n"/>
+      <c r="C324" s="34" t="n"/>
       <c r="E324" s="31" t="n"/>
       <c r="F324" s="32" t="n"/>
       <c r="G324" s="32" t="n"/>
@@ -24035,21 +22247,9 @@
       <c r="AD324" s="32" t="n"/>
     </row>
     <row r="325" ht="15.75" customHeight="1" s="24">
-      <c r="A325" s="33" t="inlineStr">
-        <is>
-          <t>いすゞ労組本部</t>
-        </is>
-      </c>
-      <c r="B325" s="34" t="inlineStr">
-        <is>
-          <t>L02208</t>
-        </is>
-      </c>
-      <c r="C325" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A325" s="33" t="n"/>
+      <c r="B325" s="34" t="n"/>
+      <c r="C325" s="34" t="n"/>
       <c r="E325" s="31" t="n"/>
       <c r="F325" s="32" t="n"/>
       <c r="G325" s="32" t="n"/>
@@ -24078,21 +22278,9 @@
       <c r="AD325" s="32" t="n"/>
     </row>
     <row r="326" ht="15.75" customHeight="1" s="24">
-      <c r="A326" s="33" t="inlineStr">
-        <is>
-          <t>新ｲｽｽﾞ中央研究所</t>
-        </is>
-      </c>
-      <c r="B326" s="34" t="inlineStr">
-        <is>
-          <t>L02205</t>
-        </is>
-      </c>
-      <c r="C326" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A326" s="33" t="n"/>
+      <c r="B326" s="34" t="n"/>
+      <c r="C326" s="34" t="n"/>
       <c r="E326" s="31" t="n"/>
       <c r="F326" s="32" t="n"/>
       <c r="G326" s="32" t="n"/>
@@ -24121,21 +22309,9 @@
       <c r="AD326" s="32" t="n"/>
     </row>
     <row r="327" ht="15.75" customHeight="1" s="24">
-      <c r="A327" s="33" t="inlineStr">
-        <is>
-          <t>いすゞﾃｸﾉﾋﾞﾙ</t>
-        </is>
-      </c>
-      <c r="B327" s="34" t="inlineStr">
-        <is>
-          <t>L02207</t>
-        </is>
-      </c>
-      <c r="C327" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A327" s="33" t="n"/>
+      <c r="B327" s="34" t="n"/>
+      <c r="C327" s="34" t="n"/>
       <c r="E327" s="31" t="n"/>
       <c r="F327" s="32" t="n"/>
       <c r="G327" s="32" t="n"/>
@@ -24164,21 +22340,9 @@
       <c r="AD327" s="32" t="n"/>
     </row>
     <row r="328" ht="15.75" customHeight="1" s="24">
-      <c r="A328" s="33" t="inlineStr">
-        <is>
-          <t>いすゞﾛｼﾞｽﾃｨｸｽ藤沢</t>
-        </is>
-      </c>
-      <c r="B328" s="34" t="inlineStr">
-        <is>
-          <t>L02204</t>
-        </is>
-      </c>
-      <c r="C328" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A328" s="33" t="n"/>
+      <c r="B328" s="34" t="n"/>
+      <c r="C328" s="34" t="n"/>
       <c r="E328" s="31" t="n"/>
       <c r="F328" s="32" t="n"/>
       <c r="G328" s="32" t="n"/>
@@ -24207,21 +22371,9 @@
       <c r="AD328" s="32" t="n"/>
     </row>
     <row r="329" ht="15.75" customHeight="1" s="24">
-      <c r="A329" s="33" t="inlineStr">
-        <is>
-          <t>ﾌﾟﾗｻﾞ ｱﾈｯｸｽ</t>
-        </is>
-      </c>
-      <c r="B329" s="34" t="inlineStr">
-        <is>
-          <t>L02219</t>
-        </is>
-      </c>
-      <c r="C329" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A329" s="33" t="n"/>
+      <c r="B329" s="34" t="n"/>
+      <c r="C329" s="34" t="n"/>
       <c r="E329" s="31" t="n"/>
       <c r="F329" s="32" t="n"/>
       <c r="G329" s="32" t="n"/>
@@ -24250,21 +22402,9 @@
       <c r="AD329" s="32" t="n"/>
     </row>
     <row r="330" ht="15.75" customHeight="1" s="24">
-      <c r="A330" s="33" t="inlineStr">
-        <is>
-          <t>いすゞﾌﾟﾗｻﾞ</t>
-        </is>
-      </c>
-      <c r="B330" s="34" t="inlineStr">
-        <is>
-          <t>L02218</t>
-        </is>
-      </c>
-      <c r="C330" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A330" s="33" t="n"/>
+      <c r="B330" s="34" t="n"/>
+      <c r="C330" s="34" t="n"/>
       <c r="E330" s="31" t="n"/>
       <c r="F330" s="32" t="n"/>
       <c r="G330" s="32" t="n"/>
@@ -24293,21 +22433,9 @@
       <c r="AD330" s="32" t="n"/>
     </row>
     <row r="331" ht="15.75" customHeight="1" s="24">
-      <c r="A331" s="33" t="inlineStr">
-        <is>
-          <t>ものづくりｻｰﾋﾞｽﾄﾚｰﾆﾝｸﾞｾﾝﾀｰ</t>
-        </is>
-      </c>
-      <c r="B331" s="34" t="inlineStr">
-        <is>
-          <t>L02216</t>
-        </is>
-      </c>
-      <c r="C331" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A331" s="33" t="n"/>
+      <c r="B331" s="34" t="n"/>
+      <c r="C331" s="34" t="n"/>
       <c r="E331" s="31" t="n"/>
       <c r="F331" s="32" t="n"/>
       <c r="G331" s="32" t="n"/>
@@ -24336,21 +22464,9 @@
       <c r="AD331" s="32" t="n"/>
     </row>
     <row r="332" ht="15.75" customHeight="1" s="24">
-      <c r="A332" s="33" t="inlineStr">
-        <is>
-          <t>ｼｬﾃﾞｨｰ</t>
-        </is>
-      </c>
-      <c r="B332" s="34" t="inlineStr">
-        <is>
-          <t>M01203</t>
-        </is>
-      </c>
-      <c r="C332" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A332" s="33" t="n"/>
+      <c r="B332" s="34" t="n"/>
+      <c r="C332" s="34" t="n"/>
       <c r="E332" s="31" t="n"/>
       <c r="F332" s="32" t="n"/>
       <c r="G332" s="32" t="n"/>
@@ -24379,21 +22495,9 @@
       <c r="AD332" s="32" t="n"/>
     </row>
     <row r="333" ht="15.75" customHeight="1" s="24">
-      <c r="A333" s="36" t="inlineStr">
-        <is>
-          <t>JBUS独身寮 (ﾕｰｲﾝｸﾞﾊｳｽ金井台)</t>
-        </is>
-      </c>
-      <c r="B333" s="34" t="inlineStr">
-        <is>
-          <t>M01211</t>
-        </is>
-      </c>
-      <c r="C333" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A333" s="36" t="n"/>
+      <c r="B333" s="34" t="n"/>
+      <c r="C333" s="34" t="n"/>
       <c r="E333" s="31" t="n"/>
       <c r="F333" s="32" t="n"/>
       <c r="G333" s="32" t="n"/>
@@ -24422,21 +22526,9 @@
       <c r="AD333" s="32" t="n"/>
     </row>
     <row r="334" ht="15.75" customHeight="1" s="24">
-      <c r="A334" s="33" t="inlineStr">
-        <is>
-          <t>いすゞﾛｼﾞｽﾃｨｸｽ 大平ﾊﾟｰﾂｾﾝﾀｰ</t>
-        </is>
-      </c>
-      <c r="B334" s="34" t="inlineStr">
-        <is>
-          <t>M01206</t>
-        </is>
-      </c>
-      <c r="C334" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A334" s="33" t="n"/>
+      <c r="B334" s="34" t="n"/>
+      <c r="C334" s="34" t="n"/>
       <c r="E334" s="31" t="n"/>
       <c r="F334" s="32" t="n"/>
       <c r="G334" s="32" t="n"/>
@@ -24465,21 +22557,9 @@
       <c r="AD334" s="32" t="n"/>
     </row>
     <row r="335" ht="15.75" customHeight="1" s="24">
-      <c r="A335" s="33" t="inlineStr">
-        <is>
-          <t>いすゞﾛｼﾞｽﾃｨｸｽ 大平北C棟</t>
-        </is>
-      </c>
-      <c r="B335" s="34" t="inlineStr">
-        <is>
-          <t>M01207</t>
-        </is>
-      </c>
-      <c r="C335" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A335" s="33" t="n"/>
+      <c r="B335" s="34" t="n"/>
+      <c r="C335" s="34" t="n"/>
       <c r="E335" s="31" t="n"/>
       <c r="F335" s="32" t="n"/>
       <c r="G335" s="32" t="n"/>
@@ -24508,21 +22588,9 @@
       <c r="AD335" s="32" t="n"/>
     </row>
     <row r="336" ht="15.75" customHeight="1" s="24">
-      <c r="A336" s="33" t="inlineStr">
-        <is>
-          <t>ゆったり~な</t>
-        </is>
-      </c>
-      <c r="B336" s="34" t="inlineStr">
-        <is>
-          <t>M01704</t>
-        </is>
-      </c>
-      <c r="C336" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A336" s="33" t="n"/>
+      <c r="B336" s="34" t="n"/>
+      <c r="C336" s="34" t="n"/>
       <c r="E336" s="31" t="n"/>
       <c r="F336" s="32" t="n"/>
       <c r="G336" s="32" t="n"/>
@@ -24551,21 +22619,9 @@
       <c r="AD336" s="32" t="n"/>
     </row>
     <row r="337" ht="15.75" customHeight="1" s="24">
-      <c r="A337" s="33" t="inlineStr">
-        <is>
-          <t>ゆうゆうﾌﾟﾗｻﾞ</t>
-        </is>
-      </c>
-      <c r="B337" s="34" t="inlineStr">
-        <is>
-          <t>M01701</t>
-        </is>
-      </c>
-      <c r="C337" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A337" s="33" t="n"/>
+      <c r="B337" s="34" t="n"/>
+      <c r="C337" s="34" t="n"/>
       <c r="E337" s="31" t="n"/>
       <c r="F337" s="32" t="n"/>
       <c r="G337" s="32" t="n"/>
@@ -24594,21 +22650,9 @@
       <c r="AD337" s="32" t="n"/>
     </row>
     <row r="338" ht="15.75" customHeight="1" s="24">
-      <c r="A338" s="33" t="inlineStr">
-        <is>
-          <t>勤労青少年ﾎｰﾑ</t>
-        </is>
-      </c>
-      <c r="B338" s="34" t="inlineStr">
-        <is>
-          <t>M01702</t>
-        </is>
-      </c>
-      <c r="C338" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A338" s="33" t="n"/>
+      <c r="B338" s="34" t="n"/>
+      <c r="C338" s="34" t="n"/>
       <c r="E338" s="31" t="n"/>
       <c r="F338" s="32" t="n"/>
       <c r="G338" s="32" t="n"/>
@@ -24637,21 +22681,9 @@
       <c r="AD338" s="32" t="n"/>
     </row>
     <row r="339" ht="15.75" customHeight="1" s="24">
-      <c r="A339" s="33" t="inlineStr">
-        <is>
-          <t>いすゞﾛｼﾞｽﾃｨｸｽ 岩舟A棟</t>
-        </is>
-      </c>
-      <c r="B339" s="34" t="inlineStr">
-        <is>
-          <t>M01201</t>
-        </is>
-      </c>
-      <c r="C339" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A339" s="33" t="n"/>
+      <c r="B339" s="34" t="n"/>
+      <c r="C339" s="34" t="n"/>
       <c r="E339" s="31" t="n"/>
       <c r="F339" s="32" t="n"/>
       <c r="G339" s="32" t="n"/>
@@ -24680,21 +22712,9 @@
       <c r="AD339" s="32" t="n"/>
     </row>
     <row r="340" ht="15.75" customHeight="1" s="24">
-      <c r="A340" s="33" t="inlineStr">
-        <is>
-          <t>施設 CREVIA</t>
-        </is>
-      </c>
-      <c r="B340" s="34" t="inlineStr">
-        <is>
-          <t>M01406</t>
-        </is>
-      </c>
-      <c r="C340" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A340" s="33" t="n"/>
+      <c r="B340" s="34" t="n"/>
+      <c r="C340" s="34" t="n"/>
       <c r="E340" s="31" t="n"/>
       <c r="F340" s="32" t="n"/>
       <c r="G340" s="32" t="n"/>
@@ -24723,21 +22743,9 @@
       <c r="AD340" s="32" t="n"/>
     </row>
     <row r="341" ht="15.75" customHeight="1" s="24">
-      <c r="A341" s="33" t="inlineStr">
-        <is>
-          <t>ｼﾞｪｲ･ﾊﾞｽ</t>
-        </is>
-      </c>
-      <c r="B341" s="34" t="inlineStr">
-        <is>
-          <t>M01210</t>
-        </is>
-      </c>
-      <c r="C341" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A341" s="33" t="n"/>
+      <c r="B341" s="34" t="n"/>
+      <c r="C341" s="34" t="n"/>
       <c r="E341" s="31" t="n"/>
       <c r="F341" s="32" t="n"/>
       <c r="G341" s="32" t="n"/>
@@ -24766,21 +22774,9 @@
       <c r="AD341" s="32" t="n"/>
     </row>
     <row r="342" ht="15.75" customHeight="1" s="24">
-      <c r="A342" s="33" t="inlineStr">
-        <is>
-          <t>栃木工場</t>
-        </is>
-      </c>
-      <c r="B342" s="34" t="inlineStr">
-        <is>
-          <t>M01200</t>
-        </is>
-      </c>
-      <c r="C342" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A342" s="33" t="n"/>
+      <c r="B342" s="34" t="n"/>
+      <c r="C342" s="34" t="n"/>
       <c r="E342" s="31" t="n"/>
       <c r="F342" s="32" t="n"/>
       <c r="G342" s="32" t="n"/>
@@ -24809,21 +22805,9 @@
       <c r="AD342" s="32" t="n"/>
     </row>
     <row r="343" ht="15.75" customHeight="1" s="24">
-      <c r="A343" s="33" t="inlineStr">
-        <is>
-          <t>ｸﾘｰﾝｻｰﾋﾞｽ課 緑化</t>
-        </is>
-      </c>
-      <c r="B343" s="34" t="inlineStr">
-        <is>
-          <t>M01205</t>
-        </is>
-      </c>
-      <c r="C343" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A343" s="33" t="n"/>
+      <c r="B343" s="34" t="n"/>
+      <c r="C343" s="34" t="n"/>
       <c r="E343" s="31" t="n"/>
       <c r="F343" s="32" t="n"/>
       <c r="G343" s="32" t="n"/>
@@ -24852,21 +22836,9 @@
       <c r="AD343" s="32" t="n"/>
     </row>
     <row r="344" ht="15.75" customHeight="1" s="24">
-      <c r="A344" s="33" t="inlineStr">
-        <is>
-          <t>施設･設備</t>
-        </is>
-      </c>
-      <c r="B344" s="34" t="inlineStr">
-        <is>
-          <t>M01450</t>
-        </is>
-      </c>
-      <c r="C344" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A344" s="33" t="n"/>
+      <c r="B344" s="34" t="n"/>
+      <c r="C344" s="34" t="n"/>
       <c r="E344" s="31" t="n"/>
       <c r="F344" s="32" t="n"/>
       <c r="G344" s="32" t="n"/>
@@ -24895,21 +22867,9 @@
       <c r="AD344" s="32" t="n"/>
     </row>
     <row r="345" ht="15.75" customHeight="1" s="24">
-      <c r="A345" s="33" t="inlineStr">
-        <is>
-          <t>栃木工場</t>
-        </is>
-      </c>
-      <c r="B345" s="34" t="inlineStr">
-        <is>
-          <t>M01502</t>
-        </is>
-      </c>
-      <c r="C345" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A345" s="33" t="n"/>
+      <c r="B345" s="34" t="n"/>
+      <c r="C345" s="34" t="n"/>
       <c r="E345" s="31" t="n"/>
       <c r="F345" s="32" t="n"/>
       <c r="G345" s="32" t="n"/>
@@ -24938,21 +22898,9 @@
       <c r="AD345" s="32" t="n"/>
     </row>
     <row r="346" ht="15.75" customHeight="1" s="24">
-      <c r="A346" s="33" t="inlineStr">
-        <is>
-          <t>施設 ｶｰｻ･ﾍﾞﾙ･ｵｵﾋﾗ</t>
-        </is>
-      </c>
-      <c r="B346" s="34" t="inlineStr">
-        <is>
-          <t>M01405</t>
-        </is>
-      </c>
-      <c r="C346" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A346" s="33" t="n"/>
+      <c r="B346" s="34" t="n"/>
+      <c r="C346" s="34" t="n"/>
       <c r="E346" s="31" t="n"/>
       <c r="F346" s="32" t="n"/>
       <c r="G346" s="32" t="n"/>
@@ -24981,21 +22929,9 @@
       <c r="AD346" s="32" t="n"/>
     </row>
     <row r="347" ht="15.75" customHeight="1" s="24">
-      <c r="A347" s="33" t="inlineStr">
-        <is>
-          <t>施設 ｶｰｻ･ﾍﾞﾙ･ｵｵﾋﾗUNI</t>
-        </is>
-      </c>
-      <c r="B347" s="34" t="inlineStr">
-        <is>
-          <t>M01404</t>
-        </is>
-      </c>
-      <c r="C347" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A347" s="33" t="n"/>
+      <c r="B347" s="34" t="n"/>
+      <c r="C347" s="34" t="n"/>
       <c r="E347" s="31" t="n"/>
       <c r="F347" s="32" t="n"/>
       <c r="G347" s="32" t="n"/>
@@ -25024,21 +22960,9 @@
       <c r="AD347" s="32" t="n"/>
     </row>
     <row r="348" ht="15.75" customHeight="1" s="24">
-      <c r="A348" s="33" t="inlineStr">
-        <is>
-          <t>いすゞﾛｼﾞｽﾃｨｸｽ ｸﾞﾛｰﾊﾞﾙｾﾝﾀｰ</t>
-        </is>
-      </c>
-      <c r="B348" s="34" t="inlineStr">
-        <is>
-          <t>M01215</t>
-        </is>
-      </c>
-      <c r="C348" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A348" s="33" t="n"/>
+      <c r="B348" s="34" t="n"/>
+      <c r="C348" s="34" t="n"/>
       <c r="E348" s="31" t="n"/>
       <c r="F348" s="32" t="n"/>
       <c r="G348" s="32" t="n"/>
@@ -25067,21 +22991,9 @@
       <c r="AD348" s="32" t="n"/>
     </row>
     <row r="349" ht="15.75" customHeight="1" s="24">
-      <c r="A349" s="33" t="inlineStr">
-        <is>
-          <t>施設 ｸﾛｼｪｯﾄ岩舟</t>
-        </is>
-      </c>
-      <c r="B349" s="34" t="inlineStr">
-        <is>
-          <t>M01401</t>
-        </is>
-      </c>
-      <c r="C349" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A349" s="33" t="n"/>
+      <c r="B349" s="34" t="n"/>
+      <c r="C349" s="34" t="n"/>
       <c r="E349" s="31" t="n"/>
       <c r="F349" s="32" t="n"/>
       <c r="G349" s="32" t="n"/>
@@ -25110,21 +23022,9 @@
       <c r="AD349" s="32" t="n"/>
     </row>
     <row r="350" ht="15.75" customHeight="1" s="24">
-      <c r="A350" s="33" t="inlineStr">
-        <is>
-          <t>栃木事業部</t>
-        </is>
-      </c>
-      <c r="B350" s="34" t="inlineStr">
-        <is>
-          <t>M00000</t>
-        </is>
-      </c>
-      <c r="C350" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A350" s="33" t="n"/>
+      <c r="B350" s="34" t="n"/>
+      <c r="C350" s="34" t="n"/>
       <c r="E350" s="31" t="n"/>
       <c r="F350" s="32" t="n"/>
       <c r="G350" s="32" t="n"/>
@@ -25153,21 +23053,9 @@
       <c r="AD350" s="32" t="n"/>
     </row>
     <row r="351" ht="15.75" customHeight="1" s="24">
-      <c r="A351" s="33" t="inlineStr">
-        <is>
-          <t>栃木 警備防災課</t>
-        </is>
-      </c>
-      <c r="B351" s="34" t="inlineStr">
-        <is>
-          <t>M01500</t>
-        </is>
-      </c>
-      <c r="C351" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A351" s="33" t="n"/>
+      <c r="B351" s="34" t="n"/>
+      <c r="C351" s="34" t="n"/>
       <c r="E351" s="31" t="n"/>
       <c r="F351" s="32" t="n"/>
       <c r="G351" s="32" t="n"/>
@@ -25196,21 +23084,9 @@
       <c r="AD351" s="32" t="n"/>
     </row>
     <row r="352" ht="15.75" customHeight="1" s="24">
-      <c r="A352" s="33" t="inlineStr">
-        <is>
-          <t>公共施設管理課</t>
-        </is>
-      </c>
-      <c r="B352" s="34" t="inlineStr">
-        <is>
-          <t>M01700</t>
-        </is>
-      </c>
-      <c r="C352" s="34" t="inlineStr">
-        <is>
-          <t>②</t>
-        </is>
-      </c>
+      <c r="A352" s="33" t="n"/>
+      <c r="B352" s="34" t="n"/>
+      <c r="C352" s="34" t="n"/>
       <c r="E352" s="31" t="n"/>
       <c r="F352" s="32" t="n"/>
       <c r="G352" s="32" t="n"/>
@@ -25239,21 +23115,9 @@
       <c r="AD352" s="32" t="n"/>
     </row>
     <row r="353" ht="15.75" customHeight="1" s="24">
-      <c r="A353" s="33" t="inlineStr">
-        <is>
-          <t>役員</t>
-        </is>
-      </c>
-      <c r="B353" s="34" t="inlineStr">
-        <is>
-          <t>A00000</t>
-        </is>
-      </c>
-      <c r="C353" s="34" t="inlineStr">
-        <is>
-          <t>①</t>
-        </is>
-      </c>
+      <c r="A353" s="33" t="n"/>
+      <c r="B353" s="34" t="n"/>
+      <c r="C353" s="34" t="n"/>
       <c r="E353" s="31" t="n"/>
       <c r="F353" s="32" t="n"/>
       <c r="G353" s="32" t="n"/>
@@ -45976,7 +43840,7 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -46472,7 +44336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46554,18 +44418,623 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="23" t="inlineStr">
         <is>
           <t>OBP設備ｻｰﾋﾞｽ課</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="23" t="inlineStr">
         <is>
           <t>J08001</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="23" t="n">
         <v>3</v>
+      </c>
+      <c r="D4" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+      <c r="E4" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="23" t="inlineStr">
+        <is>
+          <t>いすゞ病院 健診ｾﾝﾀｰ</t>
+        </is>
+      </c>
+      <c r="B5" s="23" t="inlineStr">
+        <is>
+          <t>S02009</t>
+        </is>
+      </c>
+      <c r="C5" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+      <c r="E5" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="23" t="inlineStr">
+        <is>
+          <t>横浜ｸﾘｰﾝｻｰﾋﾞｽ</t>
+        </is>
+      </c>
+      <c r="B6" s="23" t="inlineStr">
+        <is>
+          <t>S01001</t>
+        </is>
+      </c>
+      <c r="C6" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+      <c r="E6" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="23" t="inlineStr">
+        <is>
+          <t>ｵﾌｨｽｻｰﾋﾞｽ課</t>
+        </is>
+      </c>
+      <c r="B7" s="23" t="inlineStr">
+        <is>
+          <t>S02000</t>
+        </is>
+      </c>
+      <c r="C7" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+      <c r="E7" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="23" t="inlineStr">
+        <is>
+          <t>ｵﾌｨｽｺﾝｼｪﾙｼﾞｭ</t>
+        </is>
+      </c>
+      <c r="B8" s="23" t="inlineStr">
+        <is>
+          <t>S02001</t>
+        </is>
+      </c>
+      <c r="C8" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+      <c r="E8" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="23" t="inlineStr">
+        <is>
+          <t>受付</t>
+        </is>
+      </c>
+      <c r="B9" s="23" t="inlineStr">
+        <is>
+          <t>S02003</t>
+        </is>
+      </c>
+      <c r="C9" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+      <c r="E9" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="23" t="inlineStr">
+        <is>
+          <t>ﾒｰﾙ</t>
+        </is>
+      </c>
+      <c r="B10" s="23" t="inlineStr">
+        <is>
+          <t>S02005</t>
+        </is>
+      </c>
+      <c r="C10" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+      <c r="E10" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="23" t="inlineStr">
+        <is>
+          <t>ｵｰﾄｻｰﾋﾞｽ</t>
+        </is>
+      </c>
+      <c r="B11" s="23" t="inlineStr">
+        <is>
+          <t>S02006</t>
+        </is>
+      </c>
+      <c r="C11" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+      <c r="E11" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="23" t="inlineStr">
+        <is>
+          <t>いすゞ病院 横浜診療所</t>
+        </is>
+      </c>
+      <c r="B12" s="23" t="inlineStr">
+        <is>
+          <t>S02010</t>
+        </is>
+      </c>
+      <c r="C12" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+      <c r="E12" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="23" t="inlineStr">
+        <is>
+          <t>栃木工場</t>
+        </is>
+      </c>
+      <c r="B13" s="23" t="inlineStr">
+        <is>
+          <t>S02008</t>
+        </is>
+      </c>
+      <c r="C13" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+      <c r="E13" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="23" t="inlineStr">
+        <is>
+          <t>MSTC(藤沢)</t>
+        </is>
+      </c>
+      <c r="B14" s="23" t="inlineStr">
+        <is>
+          <t>S02007</t>
+        </is>
+      </c>
+      <c r="C14" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+      <c r="E14" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="23" t="inlineStr">
+        <is>
+          <t>横浜事業部</t>
+        </is>
+      </c>
+      <c r="B15" s="23" t="inlineStr">
+        <is>
+          <t>S00000</t>
+        </is>
+      </c>
+      <c r="C15" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+      <c r="E15" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="23" t="inlineStr">
+        <is>
+          <t>ｸﾘｰﾝｻｰﾋﾞｽ課</t>
+        </is>
+      </c>
+      <c r="B16" s="23" t="inlineStr">
+        <is>
+          <t>S01000</t>
+        </is>
+      </c>
+      <c r="C16" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+      <c r="E16" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="23" t="inlineStr">
+        <is>
+          <t>いすゞ病院</t>
+        </is>
+      </c>
+      <c r="B17" s="23" t="inlineStr">
+        <is>
+          <t>N02052</t>
+        </is>
+      </c>
+      <c r="C17" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+      <c r="E17" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="23" t="inlineStr">
+        <is>
+          <t>いすゞ病院当直</t>
+        </is>
+      </c>
+      <c r="B18" s="23" t="inlineStr">
+        <is>
+          <t>N02053</t>
+        </is>
+      </c>
+      <c r="C18" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+      <c r="E18" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="23" t="inlineStr">
+        <is>
+          <t>東京管理二課</t>
+        </is>
+      </c>
+      <c r="B19" s="23" t="inlineStr">
+        <is>
+          <t>N02010</t>
+        </is>
+      </c>
+      <c r="C19" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+      <c r="E19" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="23" t="inlineStr">
+        <is>
+          <t>KDDI大手町ﾋﾞﾙ(ｸﾘｰﾝｻｰﾋﾞｽ)</t>
+        </is>
+      </c>
+      <c r="B20" s="23" t="inlineStr">
+        <is>
+          <t>N02011</t>
+        </is>
+      </c>
+      <c r="C20" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+      <c r="E20" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="23" t="inlineStr">
+        <is>
+          <t>KDDI大手町ﾋﾞﾙ(設備ｻｰﾋﾞｽ)</t>
+        </is>
+      </c>
+      <c r="B21" s="23" t="inlineStr">
+        <is>
+          <t>N02012</t>
+        </is>
+      </c>
+      <c r="C21" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+      <c r="E21" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="23" t="inlineStr">
+        <is>
+          <t>東京管理三課</t>
+        </is>
+      </c>
+      <c r="B22" s="23" t="inlineStr">
+        <is>
+          <t>N02040</t>
+        </is>
+      </c>
+      <c r="C22" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+      <c r="E22" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="23" t="inlineStr">
+        <is>
+          <t>KDDI大手町ﾋﾞﾙ(ｵｰﾅｰ代行)</t>
+        </is>
+      </c>
+      <c r="B23" s="23" t="inlineStr">
+        <is>
+          <t>N02041</t>
+        </is>
+      </c>
+      <c r="C23" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+      <c r="E23" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="23" t="inlineStr">
+        <is>
+          <t>KDDI大手町ﾋﾞﾙ(KDDIﾎｰﾙ)</t>
+        </is>
+      </c>
+      <c r="B24" s="23" t="inlineStr">
+        <is>
+          <t>N02042</t>
+        </is>
+      </c>
+      <c r="C24" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+      <c r="E24" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="23" t="inlineStr">
+        <is>
+          <t>KDDI大手町ﾋﾞﾙ(防災ｾﾝﾀｰ)</t>
+        </is>
+      </c>
+      <c r="B25" s="23" t="inlineStr">
+        <is>
+          <t>N02043</t>
+        </is>
+      </c>
+      <c r="C25" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+      <c r="E25" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="23" t="inlineStr">
+        <is>
+          <t>栃木管理課</t>
+        </is>
+      </c>
+      <c r="B26" s="23" t="inlineStr">
+        <is>
+          <t>N01000</t>
+        </is>
+      </c>
+      <c r="C26" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+      <c r="E26" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="23" t="inlineStr">
+        <is>
+          <t>KDDI小山ﾈｯﾄﾜｰｸｾﾝﾀｰ</t>
+        </is>
+      </c>
+      <c r="B27" s="23" t="inlineStr">
+        <is>
+          <t>N01001</t>
+        </is>
+      </c>
+      <c r="C27" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+      <c r="E27" s="23" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="23" t="inlineStr">
+        <is>
+          <t>東京管理一課</t>
+        </is>
+      </c>
+      <c r="B28" s="23" t="inlineStr">
+        <is>
+          <t>N02000</t>
+        </is>
+      </c>
+      <c r="C28" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Done 12 months without error !</t>
+        </is>
       </c>
     </row>
   </sheetData>
